--- a/CompanyMatches.xlsx
+++ b/CompanyMatches.xlsx
@@ -1,13 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27226"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="240" yWindow="680" windowWidth="25360" windowHeight="15380"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId3" sheetId="1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -19608,11 +19615,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -19624,7 +19630,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -19639,21 +19645,355 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D483"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="3" max="3" width="38.33203125" customWidth="1"/>
+    <col min="4" max="4" width="62" style="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -19663,11 +20003,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -19677,11 +20017,11 @@
       <c r="C2" t="s">
         <v>797</v>
       </c>
-      <c r="D2" t="e">
+      <c r="D2" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -19691,11 +20031,11 @@
       <c r="C3" t="s">
         <v>798</v>
       </c>
-      <c r="D3" t="e">
+      <c r="D3" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -19705,11 +20045,11 @@
       <c r="C4" t="s">
         <v>799</v>
       </c>
-      <c r="D4" t="e">
+      <c r="D4" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -19719,11 +20059,11 @@
       <c r="C5" t="s">
         <v>800</v>
       </c>
-      <c r="D5" t="e">
+      <c r="D5" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -19733,11 +20073,11 @@
       <c r="C6" t="s">
         <v>801</v>
       </c>
-      <c r="D6" t="e">
+      <c r="D6" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -19747,11 +20087,11 @@
       <c r="C7" t="s">
         <v>802</v>
       </c>
-      <c r="D7" t="e">
+      <c r="D7" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -19761,11 +20101,11 @@
       <c r="C8" t="s">
         <v>803</v>
       </c>
-      <c r="D8" t="e">
+      <c r="D8" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -19775,11 +20115,11 @@
       <c r="C9" t="s">
         <v>804</v>
       </c>
-      <c r="D9" t="e">
+      <c r="D9" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -19789,11 +20129,11 @@
       <c r="C10" t="s">
         <v>805</v>
       </c>
-      <c r="D10" t="e">
+      <c r="D10" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -19803,11 +20143,11 @@
       <c r="C11" t="s">
         <v>806</v>
       </c>
-      <c r="D11" t="e">
+      <c r="D11" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -19817,11 +20157,11 @@
       <c r="C12" t="s">
         <v>807</v>
       </c>
-      <c r="D12" t="e">
+      <c r="D12" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -19831,11 +20171,11 @@
       <c r="C13" t="s">
         <v>808</v>
       </c>
-      <c r="D13" t="e">
+      <c r="D13" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -19845,11 +20185,11 @@
       <c r="C14" t="s">
         <v>809</v>
       </c>
-      <c r="D14" t="e">
+      <c r="D14" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -19859,11 +20199,11 @@
       <c r="C15" t="s">
         <v>810</v>
       </c>
-      <c r="D15" t="e">
+      <c r="D15" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -19873,11 +20213,11 @@
       <c r="C16" t="s">
         <v>811</v>
       </c>
-      <c r="D16" t="e">
+      <c r="D16" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -19887,11 +20227,11 @@
       <c r="C17" t="s">
         <v>812</v>
       </c>
-      <c r="D17" t="e">
+      <c r="D17" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -19901,11 +20241,11 @@
       <c r="C18" t="s">
         <v>813</v>
       </c>
-      <c r="D18" t="e">
+      <c r="D18" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -19915,11 +20255,11 @@
       <c r="C19" t="s">
         <v>814</v>
       </c>
-      <c r="D19" t="e">
+      <c r="D19" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -19929,11 +20269,11 @@
       <c r="C20" t="s">
         <v>815</v>
       </c>
-      <c r="D20" t="e">
+      <c r="D20" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -19943,11 +20283,11 @@
       <c r="C21" t="s">
         <v>816</v>
       </c>
-      <c r="D21" t="e">
+      <c r="D21" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -19957,11 +20297,11 @@
       <c r="C22" t="s">
         <v>817</v>
       </c>
-      <c r="D22" t="e">
+      <c r="D22" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -19971,11 +20311,11 @@
       <c r="C23" t="s">
         <v>818</v>
       </c>
-      <c r="D23" t="e">
+      <c r="D23" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -19985,11 +20325,11 @@
       <c r="C24" t="s">
         <v>819</v>
       </c>
-      <c r="D24" t="e">
+      <c r="D24" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -19999,11 +20339,11 @@
       <c r="C25" t="s">
         <v>820</v>
       </c>
-      <c r="D25" t="e">
+      <c r="D25" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -20013,11 +20353,11 @@
       <c r="C26" t="s">
         <v>821</v>
       </c>
-      <c r="D26" t="e">
+      <c r="D26" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -20027,11 +20367,11 @@
       <c r="C27" t="s">
         <v>822</v>
       </c>
-      <c r="D27" t="e">
+      <c r="D27" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -20041,11 +20381,11 @@
       <c r="C28" t="s">
         <v>823</v>
       </c>
-      <c r="D28" t="e">
+      <c r="D28" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -20055,11 +20395,11 @@
       <c r="C29" t="s">
         <v>824</v>
       </c>
-      <c r="D29" t="e">
+      <c r="D29" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -20069,11 +20409,11 @@
       <c r="C30" t="s">
         <v>825</v>
       </c>
-      <c r="D30" t="e">
+      <c r="D30" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -20083,11 +20423,11 @@
       <c r="C31" t="s">
         <v>826</v>
       </c>
-      <c r="D31" t="e">
+      <c r="D31" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>34</v>
       </c>
@@ -20097,11 +20437,11 @@
       <c r="C32" t="s">
         <v>827</v>
       </c>
-      <c r="D32" t="e">
+      <c r="D32" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>35</v>
       </c>
@@ -20111,11 +20451,11 @@
       <c r="C33" t="s">
         <v>828</v>
       </c>
-      <c r="D33" t="e">
+      <c r="D33" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>36</v>
       </c>
@@ -20125,11 +20465,11 @@
       <c r="C34" t="s">
         <v>829</v>
       </c>
-      <c r="D34" t="e">
+      <c r="D34" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
         <v>37</v>
       </c>
@@ -20139,11 +20479,11 @@
       <c r="C35" t="s">
         <v>830</v>
       </c>
-      <c r="D35" t="e">
+      <c r="D35" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
         <v>38</v>
       </c>
@@ -20153,11 +20493,11 @@
       <c r="C36" t="s">
         <v>831</v>
       </c>
-      <c r="D36" t="e">
+      <c r="D36" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
         <v>33</v>
       </c>
@@ -20167,11 +20507,11 @@
       <c r="C37" t="s">
         <v>832</v>
       </c>
-      <c r="D37" t="e">
+      <c r="D37" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>39</v>
       </c>
@@ -20181,11 +20521,11 @@
       <c r="C38" t="s">
         <v>833</v>
       </c>
-      <c r="D38" t="e">
+      <c r="D38" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:4" ht="409">
       <c r="A39" t="s">
         <v>40</v>
       </c>
@@ -20195,11 +20535,11 @@
       <c r="C39" t="s">
         <v>834</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="1" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:4" ht="409">
       <c r="A40" t="s">
         <v>41</v>
       </c>
@@ -20209,11 +20549,11 @@
       <c r="C40" t="s">
         <v>835</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="1" t="s">
         <v>1267</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:4" ht="409">
       <c r="A41" t="s">
         <v>24</v>
       </c>
@@ -20223,11 +20563,11 @@
       <c r="C41" t="s">
         <v>836</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="1" t="s">
         <v>1268</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:4" ht="210">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -20237,11 +20577,11 @@
       <c r="C42" t="s">
         <v>837</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="1" t="s">
         <v>1269</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:4" ht="409">
       <c r="A43" t="s">
         <v>43</v>
       </c>
@@ -20251,11 +20591,11 @@
       <c r="C43" t="s">
         <v>838</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="1" t="s">
         <v>1270</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
         <v>44</v>
       </c>
@@ -20265,11 +20605,11 @@
       <c r="C44" t="s">
         <v>839</v>
       </c>
-      <c r="D44" t="e">
+      <c r="D44" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:4" ht="210">
       <c r="A45" t="s">
         <v>45</v>
       </c>
@@ -20279,11 +20619,11 @@
       <c r="C45" t="s">
         <v>840</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="1" t="s">
         <v>1269</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:4" ht="409">
       <c r="A46" t="s">
         <v>46</v>
       </c>
@@ -20293,11 +20633,11 @@
       <c r="C46" t="s">
         <v>841</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="1" t="s">
         <v>1271</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:4" ht="140">
       <c r="A47" t="s">
         <v>47</v>
       </c>
@@ -20307,11 +20647,11 @@
       <c r="C47" t="s">
         <v>842</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="1" t="s">
         <v>1272</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:4" ht="409">
       <c r="A48" t="s">
         <v>48</v>
       </c>
@@ -20321,11 +20661,11 @@
       <c r="C48" t="s">
         <v>843</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="1" t="s">
         <v>1273</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:4" ht="409">
       <c r="A49" t="s">
         <v>49</v>
       </c>
@@ -20335,11 +20675,11 @@
       <c r="C49" t="s">
         <v>844</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" s="1" t="s">
         <v>1274</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:4" ht="409">
       <c r="A50" t="s">
         <v>50</v>
       </c>
@@ -20349,11 +20689,11 @@
       <c r="C50" t="s">
         <v>845</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="1" t="s">
         <v>1275</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:4">
       <c r="A51" t="s">
         <v>41</v>
       </c>
@@ -20363,11 +20703,11 @@
       <c r="C51" t="s">
         <v>846</v>
       </c>
-      <c r="D51" t="e">
+      <c r="D51" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:4" ht="409">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -20377,11 +20717,11 @@
       <c r="C52" t="s">
         <v>847</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52" s="1" t="s">
         <v>1276</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:4">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -20391,11 +20731,11 @@
       <c r="C53" t="s">
         <v>848</v>
       </c>
-      <c r="D53" t="e">
+      <c r="D53" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:4" ht="409">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -20405,11 +20745,11 @@
       <c r="C54" t="s">
         <v>849</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" s="1" t="s">
         <v>1277</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:4">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -20419,11 +20759,11 @@
       <c r="C55" t="s">
         <v>850</v>
       </c>
-      <c r="D55" t="e">
+      <c r="D55" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:4">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -20433,11 +20773,11 @@
       <c r="C56" t="s">
         <v>851</v>
       </c>
-      <c r="D56" t="e">
+      <c r="D56" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:4" ht="409">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -20447,11 +20787,11 @@
       <c r="C57" t="s">
         <v>852</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D57" s="1" t="s">
         <v>1278</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:4" ht="409">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -20461,11 +20801,11 @@
       <c r="C58" t="s">
         <v>853</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58" s="1" t="s">
         <v>1279</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:4" ht="409">
       <c r="A59" t="s">
         <v>33</v>
       </c>
@@ -20475,11 +20815,11 @@
       <c r="C59" t="s">
         <v>854</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59" s="1" t="s">
         <v>1280</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:4" ht="42">
       <c r="A60" t="s">
         <v>58</v>
       </c>
@@ -20489,11 +20829,11 @@
       <c r="C60" t="s">
         <v>855</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60" s="1" t="s">
         <v>1281</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:4" ht="409">
       <c r="A61" t="s">
         <v>59</v>
       </c>
@@ -20503,11 +20843,11 @@
       <c r="C61" t="s">
         <v>856</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61" s="1" t="s">
         <v>1282</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:4">
       <c r="A62" t="s">
         <v>60</v>
       </c>
@@ -20517,11 +20857,11 @@
       <c r="C62" t="s">
         <v>857</v>
       </c>
-      <c r="D62" t="e">
+      <c r="D62" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:4" ht="409">
       <c r="A63" t="s">
         <v>61</v>
       </c>
@@ -20531,11 +20871,11 @@
       <c r="C63" t="s">
         <v>858</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D63" s="1" t="s">
         <v>1283</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:4" ht="409">
       <c r="A64" t="s">
         <v>62</v>
       </c>
@@ -20545,11 +20885,11 @@
       <c r="C64" t="s">
         <v>859</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D64" s="1" t="s">
         <v>1284</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:4" ht="409">
       <c r="A65" t="s">
         <v>63</v>
       </c>
@@ -20559,11 +20899,11 @@
       <c r="C65" t="s">
         <v>860</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D65" s="1" t="s">
         <v>1285</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:4" ht="409">
       <c r="A66" t="s">
         <v>64</v>
       </c>
@@ -20573,11 +20913,11 @@
       <c r="C66" t="s">
         <v>861</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D66" s="1" t="s">
         <v>1286</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:4">
       <c r="A67" t="s">
         <v>65</v>
       </c>
@@ -20587,11 +20927,11 @@
       <c r="C67" t="s">
         <v>862</v>
       </c>
-      <c r="D67" t="e">
+      <c r="D67" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:4">
       <c r="A68" t="s">
         <v>66</v>
       </c>
@@ -20601,11 +20941,11 @@
       <c r="C68" t="s">
         <v>863</v>
       </c>
-      <c r="D68" t="e">
+      <c r="D68" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:4">
       <c r="A69" t="s">
         <v>67</v>
       </c>
@@ -20615,11 +20955,11 @@
       <c r="C69" t="s">
         <v>864</v>
       </c>
-      <c r="D69" t="e">
+      <c r="D69" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:4" ht="409">
       <c r="A70" t="s">
         <v>68</v>
       </c>
@@ -20629,11 +20969,11 @@
       <c r="C70" t="s">
         <v>865</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D70" s="1" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:4" ht="409">
       <c r="A71" t="s">
         <v>69</v>
       </c>
@@ -20643,11 +20983,11 @@
       <c r="C71" t="s">
         <v>866</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D71" s="1" t="s">
         <v>1288</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:4">
       <c r="A72" t="s">
         <v>70</v>
       </c>
@@ -20657,11 +20997,11 @@
       <c r="C72" t="s">
         <v>867</v>
       </c>
-      <c r="D72" t="e">
+      <c r="D72" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:4" ht="409">
       <c r="A73" t="s">
         <v>71</v>
       </c>
@@ -20671,11 +21011,11 @@
       <c r="C73" t="s">
         <v>868</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D73" s="1" t="s">
         <v>1289</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:4" ht="409">
       <c r="A74" t="s">
         <v>72</v>
       </c>
@@ -20685,11 +21025,11 @@
       <c r="C74" t="s">
         <v>869</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D74" s="1" t="s">
         <v>1290</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:4" ht="409">
       <c r="A75" t="s">
         <v>73</v>
       </c>
@@ -20699,11 +21039,11 @@
       <c r="C75" t="s">
         <v>870</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D75" s="1" t="s">
         <v>1291</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:4">
       <c r="A76" t="s">
         <v>74</v>
       </c>
@@ -20713,11 +21053,11 @@
       <c r="C76" t="s">
         <v>871</v>
       </c>
-      <c r="D76" t="e">
+      <c r="D76" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:4">
       <c r="A77" t="s">
         <v>33</v>
       </c>
@@ -20727,11 +21067,11 @@
       <c r="C77" t="s">
         <v>872</v>
       </c>
-      <c r="D77" t="e">
+      <c r="D77" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:4" ht="409">
       <c r="A78" t="s">
         <v>54</v>
       </c>
@@ -20741,11 +21081,11 @@
       <c r="C78" t="s">
         <v>873</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D78" s="1" t="s">
         <v>1292</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:4" ht="409">
       <c r="A79" t="s">
         <v>75</v>
       </c>
@@ -20755,11 +21095,11 @@
       <c r="C79" t="s">
         <v>874</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D79" s="1" t="s">
         <v>1293</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:4" ht="409">
       <c r="A80" t="s">
         <v>76</v>
       </c>
@@ -20769,11 +21109,11 @@
       <c r="C80" t="s">
         <v>875</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D80" s="1" t="s">
         <v>1294</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:4" ht="409">
       <c r="A81" t="s">
         <v>77</v>
       </c>
@@ -20783,11 +21123,11 @@
       <c r="C81" t="s">
         <v>876</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D81" s="1" t="s">
         <v>1295</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:4" ht="409">
       <c r="A82" t="s">
         <v>11</v>
       </c>
@@ -20797,11 +21137,11 @@
       <c r="C82" t="s">
         <v>877</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D82" s="1" t="s">
         <v>1296</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:4">
       <c r="A83" t="s">
         <v>59</v>
       </c>
@@ -20811,11 +21151,11 @@
       <c r="C83" t="s">
         <v>878</v>
       </c>
-      <c r="D83" t="e">
+      <c r="D83" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:4">
       <c r="A84" t="s">
         <v>78</v>
       </c>
@@ -20825,11 +21165,11 @@
       <c r="C84" t="s">
         <v>879</v>
       </c>
-      <c r="D84" t="e">
+      <c r="D84" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:4" ht="409">
       <c r="A85" t="s">
         <v>79</v>
       </c>
@@ -20839,11 +21179,11 @@
       <c r="C85" t="s">
         <v>880</v>
       </c>
-      <c r="D85" t="s">
+      <c r="D85" s="1" t="s">
         <v>1297</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:4" ht="409">
       <c r="A86" t="s">
         <v>80</v>
       </c>
@@ -20853,11 +21193,11 @@
       <c r="C86" t="s">
         <v>881</v>
       </c>
-      <c r="D86" t="s">
+      <c r="D86" s="1" t="s">
         <v>1298</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:4" ht="409">
       <c r="A87" t="s">
         <v>81</v>
       </c>
@@ -20867,11 +21207,11 @@
       <c r="C87" t="s">
         <v>882</v>
       </c>
-      <c r="D87" t="s">
+      <c r="D87" s="1" t="s">
         <v>1299</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:4" ht="154">
       <c r="A88" t="s">
         <v>82</v>
       </c>
@@ -20881,11 +21221,11 @@
       <c r="C88" t="s">
         <v>883</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D88" s="1" t="s">
         <v>1300</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:4">
       <c r="A89" t="s">
         <v>83</v>
       </c>
@@ -20895,11 +21235,11 @@
       <c r="C89" t="s">
         <v>884</v>
       </c>
-      <c r="D89" t="e">
+      <c r="D89" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:4">
       <c r="A90" t="s">
         <v>52</v>
       </c>
@@ -20909,11 +21249,11 @@
       <c r="C90" t="s">
         <v>885</v>
       </c>
-      <c r="D90" t="e">
+      <c r="D90" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:4" ht="409">
       <c r="A91" t="s">
         <v>84</v>
       </c>
@@ -20923,11 +21263,11 @@
       <c r="C91" t="s">
         <v>886</v>
       </c>
-      <c r="D91" t="s">
+      <c r="D91" s="1" t="s">
         <v>1301</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:4">
       <c r="A92" t="s">
         <v>85</v>
       </c>
@@ -20937,11 +21277,11 @@
       <c r="C92" t="s">
         <v>887</v>
       </c>
-      <c r="D92" t="e">
+      <c r="D92" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:4" ht="409">
       <c r="A93" t="s">
         <v>86</v>
       </c>
@@ -20951,11 +21291,11 @@
       <c r="C93" t="s">
         <v>888</v>
       </c>
-      <c r="D93" t="s">
+      <c r="D93" s="1" t="s">
         <v>1302</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:4" ht="409">
       <c r="A94" t="s">
         <v>87</v>
       </c>
@@ -20965,11 +21305,11 @@
       <c r="C94" t="s">
         <v>889</v>
       </c>
-      <c r="D94" t="s">
+      <c r="D94" s="1" t="s">
         <v>1303</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:4">
       <c r="A95" t="s">
         <v>33</v>
       </c>
@@ -20979,11 +21319,11 @@
       <c r="C95" t="s">
         <v>890</v>
       </c>
-      <c r="D95" t="e">
+      <c r="D95" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:4">
       <c r="A96" t="s">
         <v>88</v>
       </c>
@@ -20993,11 +21333,11 @@
       <c r="C96" t="s">
         <v>891</v>
       </c>
-      <c r="D96" t="e">
+      <c r="D96" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:4" ht="350">
       <c r="A97" t="s">
         <v>31</v>
       </c>
@@ -21007,11 +21347,11 @@
       <c r="C97" t="s">
         <v>892</v>
       </c>
-      <c r="D97" t="s">
+      <c r="D97" s="1" t="s">
         <v>1304</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:4" ht="409">
       <c r="A98" t="s">
         <v>89</v>
       </c>
@@ -21021,11 +21361,11 @@
       <c r="C98" t="s">
         <v>893</v>
       </c>
-      <c r="D98" t="s">
+      <c r="D98" s="1" t="s">
         <v>1305</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:4" ht="409">
       <c r="A99" t="s">
         <v>90</v>
       </c>
@@ -21035,11 +21375,11 @@
       <c r="C99" t="s">
         <v>894</v>
       </c>
-      <c r="D99" t="s">
+      <c r="D99" s="1" t="s">
         <v>1306</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:4" ht="409">
       <c r="A100" t="s">
         <v>91</v>
       </c>
@@ -21049,11 +21389,11 @@
       <c r="C100" t="s">
         <v>895</v>
       </c>
-      <c r="D100" t="s">
+      <c r="D100" s="1" t="s">
         <v>1307</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:4" ht="409">
       <c r="A101" t="s">
         <v>92</v>
       </c>
@@ -21063,11 +21403,11 @@
       <c r="C101" t="s">
         <v>896</v>
       </c>
-      <c r="D101" t="s">
+      <c r="D101" s="1" t="s">
         <v>1308</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:4">
       <c r="A102" t="s">
         <v>93</v>
       </c>
@@ -21077,11 +21417,11 @@
       <c r="C102" t="s">
         <v>897</v>
       </c>
-      <c r="D102" t="e">
+      <c r="D102" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:4">
       <c r="A103" t="s">
         <v>94</v>
       </c>
@@ -21091,11 +21431,11 @@
       <c r="C103" t="s">
         <v>898</v>
       </c>
-      <c r="D103" t="e">
+      <c r="D103" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:4">
       <c r="A104" t="s">
         <v>95</v>
       </c>
@@ -21105,11 +21445,11 @@
       <c r="C104" t="s">
         <v>899</v>
       </c>
-      <c r="D104" t="e">
+      <c r="D104" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="1:4">
       <c r="A105" t="s">
         <v>96</v>
       </c>
@@ -21119,11 +21459,11 @@
       <c r="C105" t="s">
         <v>900</v>
       </c>
-      <c r="D105" t="e">
+      <c r="D105" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="1:4">
       <c r="A106" t="s">
         <v>97</v>
       </c>
@@ -21133,11 +21473,11 @@
       <c r="C106" t="s">
         <v>901</v>
       </c>
-      <c r="D106" t="e">
+      <c r="D106" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="1:4" ht="409">
       <c r="A107" t="s">
         <v>98</v>
       </c>
@@ -21147,11 +21487,11 @@
       <c r="C107" t="s">
         <v>902</v>
       </c>
-      <c r="D107" t="s">
+      <c r="D107" s="1" t="s">
         <v>1309</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" spans="1:4" ht="409">
       <c r="A108" t="s">
         <v>99</v>
       </c>
@@ -21161,11 +21501,11 @@
       <c r="C108" t="s">
         <v>903</v>
       </c>
-      <c r="D108" t="s">
+      <c r="D108" s="1" t="s">
         <v>1310</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="1:4" ht="409">
       <c r="A109" t="s">
         <v>35</v>
       </c>
@@ -21175,11 +21515,11 @@
       <c r="C109" t="s">
         <v>904</v>
       </c>
-      <c r="D109" t="s">
+      <c r="D109" s="1" t="s">
         <v>1310</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" spans="1:4" ht="154">
       <c r="A110" t="s">
         <v>100</v>
       </c>
@@ -21189,11 +21529,11 @@
       <c r="C110" t="s">
         <v>905</v>
       </c>
-      <c r="D110" t="s">
+      <c r="D110" s="1" t="s">
         <v>1300</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" spans="1:4" ht="409">
       <c r="A111" t="s">
         <v>101</v>
       </c>
@@ -21203,11 +21543,11 @@
       <c r="C111" t="s">
         <v>906</v>
       </c>
-      <c r="D111" t="s">
+      <c r="D111" s="1" t="s">
         <v>1311</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" spans="1:4">
       <c r="A112" t="s">
         <v>102</v>
       </c>
@@ -21217,11 +21557,11 @@
       <c r="C112" t="s">
         <v>907</v>
       </c>
-      <c r="D112" t="e">
+      <c r="D112" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" spans="1:4" ht="409">
       <c r="A113" t="s">
         <v>103</v>
       </c>
@@ -21231,11 +21571,11 @@
       <c r="C113" t="s">
         <v>908</v>
       </c>
-      <c r="D113" t="s">
+      <c r="D113" s="1" t="s">
         <v>1312</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" spans="1:4" ht="409">
       <c r="A114" t="s">
         <v>104</v>
       </c>
@@ -21245,11 +21585,11 @@
       <c r="C114" t="s">
         <v>909</v>
       </c>
-      <c r="D114" t="s">
+      <c r="D114" s="1" t="s">
         <v>1313</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" spans="1:4" ht="409">
       <c r="A115" t="s">
         <v>105</v>
       </c>
@@ -21259,11 +21599,11 @@
       <c r="C115" t="s">
         <v>910</v>
       </c>
-      <c r="D115" t="s">
+      <c r="D115" s="1" t="s">
         <v>1314</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" spans="1:4" ht="210">
       <c r="A116" t="s">
         <v>106</v>
       </c>
@@ -21273,11 +21613,11 @@
       <c r="C116" t="s">
         <v>911</v>
       </c>
-      <c r="D116" t="s">
+      <c r="D116" s="1" t="s">
         <v>1269</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" spans="1:4" ht="409">
       <c r="A117" t="s">
         <v>107</v>
       </c>
@@ -21287,11 +21627,11 @@
       <c r="C117" t="s">
         <v>912</v>
       </c>
-      <c r="D117" t="s">
+      <c r="D117" s="1" t="s">
         <v>1315</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" spans="1:4" ht="409">
       <c r="A118" t="s">
         <v>108</v>
       </c>
@@ -21301,11 +21641,11 @@
       <c r="C118" t="s">
         <v>913</v>
       </c>
-      <c r="D118" t="s">
+      <c r="D118" s="1" t="s">
         <v>1316</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" spans="1:4" ht="409">
       <c r="A119" t="s">
         <v>109</v>
       </c>
@@ -21315,11 +21655,11 @@
       <c r="C119" t="s">
         <v>914</v>
       </c>
-      <c r="D119" t="s">
+      <c r="D119" s="1" t="s">
         <v>1296</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" spans="1:4" ht="409">
       <c r="A120" t="s">
         <v>31</v>
       </c>
@@ -21329,11 +21669,11 @@
       <c r="C120" t="s">
         <v>915</v>
       </c>
-      <c r="D120" t="s">
+      <c r="D120" s="1" t="s">
         <v>1317</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" spans="1:4" ht="409">
       <c r="A121" t="s">
         <v>110</v>
       </c>
@@ -21343,11 +21683,11 @@
       <c r="C121" t="s">
         <v>916</v>
       </c>
-      <c r="D121" t="s">
+      <c r="D121" s="1" t="s">
         <v>1318</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" spans="1:4">
       <c r="A122" t="s">
         <v>111</v>
       </c>
@@ -21357,11 +21697,11 @@
       <c r="C122" t="s">
         <v>917</v>
       </c>
-      <c r="D122" t="e">
+      <c r="D122" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" spans="1:4" ht="350">
       <c r="A123" t="s">
         <v>112</v>
       </c>
@@ -21371,11 +21711,11 @@
       <c r="C123" t="s">
         <v>918</v>
       </c>
-      <c r="D123" t="s">
+      <c r="D123" s="1" t="s">
         <v>1319</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" spans="1:4" ht="409">
       <c r="A124" t="s">
         <v>113</v>
       </c>
@@ -21385,11 +21725,11 @@
       <c r="C124" t="s">
         <v>919</v>
       </c>
-      <c r="D124" t="s">
+      <c r="D124" s="1" t="s">
         <v>1320</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" spans="1:4">
       <c r="A125" t="s">
         <v>35</v>
       </c>
@@ -21399,11 +21739,11 @@
       <c r="C125" t="s">
         <v>920</v>
       </c>
-      <c r="D125" t="e">
+      <c r="D125" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" spans="1:4" ht="409">
       <c r="A126" t="s">
         <v>60</v>
       </c>
@@ -21413,11 +21753,11 @@
       <c r="C126" t="s">
         <v>921</v>
       </c>
-      <c r="D126" t="s">
+      <c r="D126" s="1" t="s">
         <v>1321</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" spans="1:4" ht="210">
       <c r="A127" t="s">
         <v>114</v>
       </c>
@@ -21427,11 +21767,11 @@
       <c r="C127" t="s">
         <v>922</v>
       </c>
-      <c r="D127" t="s">
+      <c r="D127" s="1" t="s">
         <v>1269</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" spans="1:4">
       <c r="A128" t="s">
         <v>115</v>
       </c>
@@ -21441,11 +21781,11 @@
       <c r="C128" t="s">
         <v>923</v>
       </c>
-      <c r="D128" t="e">
+      <c r="D128" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" spans="1:4" ht="224">
       <c r="A129" t="s">
         <v>116</v>
       </c>
@@ -21455,11 +21795,11 @@
       <c r="C129" t="s">
         <v>924</v>
       </c>
-      <c r="D129" t="s">
+      <c r="D129" s="1" t="s">
         <v>1322</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" spans="1:4">
       <c r="A130" t="s">
         <v>117</v>
       </c>
@@ -21469,11 +21809,11 @@
       <c r="C130" t="s">
         <v>925</v>
       </c>
-      <c r="D130" t="e">
+      <c r="D130" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" spans="1:4" ht="56">
       <c r="A131" t="s">
         <v>118</v>
       </c>
@@ -21483,11 +21823,11 @@
       <c r="C131" t="s">
         <v>926</v>
       </c>
-      <c r="D131" t="s">
+      <c r="D131" s="1" t="s">
         <v>1323</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" spans="1:4" ht="154">
       <c r="A132" t="s">
         <v>119</v>
       </c>
@@ -21497,11 +21837,11 @@
       <c r="C132" t="s">
         <v>927</v>
       </c>
-      <c r="D132" t="s">
+      <c r="D132" s="1" t="s">
         <v>1300</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" spans="1:4" ht="224">
       <c r="A133" t="s">
         <v>120</v>
       </c>
@@ -21511,11 +21851,11 @@
       <c r="C133" t="s">
         <v>928</v>
       </c>
-      <c r="D133" t="s">
+      <c r="D133" s="1" t="s">
         <v>1322</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" spans="1:4" ht="409">
       <c r="A134" t="s">
         <v>121</v>
       </c>
@@ -21525,11 +21865,11 @@
       <c r="C134" t="s">
         <v>929</v>
       </c>
-      <c r="D134" t="s">
+      <c r="D134" s="1" t="s">
         <v>1324</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" spans="1:4" ht="409">
       <c r="A135" t="s">
         <v>79</v>
       </c>
@@ -21539,11 +21879,11 @@
       <c r="C135" t="s">
         <v>930</v>
       </c>
-      <c r="D135" t="s">
+      <c r="D135" s="1" t="s">
         <v>1325</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" spans="1:4" ht="409">
       <c r="A136" t="s">
         <v>108</v>
       </c>
@@ -21553,11 +21893,11 @@
       <c r="C136" t="s">
         <v>931</v>
       </c>
-      <c r="D136" t="s">
+      <c r="D136" s="1" t="s">
         <v>1326</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" spans="1:4" ht="409">
       <c r="A137" t="s">
         <v>122</v>
       </c>
@@ -21567,11 +21907,11 @@
       <c r="C137" t="s">
         <v>932</v>
       </c>
-      <c r="D137" t="s">
+      <c r="D137" s="1" t="s">
         <v>1327</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" spans="1:4" ht="409">
       <c r="A138" t="s">
         <v>123</v>
       </c>
@@ -21581,11 +21921,11 @@
       <c r="C138" t="s">
         <v>932</v>
       </c>
-      <c r="D138" t="s">
+      <c r="D138" s="1" t="s">
         <v>1328</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" spans="1:4" ht="56">
       <c r="A139" t="s">
         <v>124</v>
       </c>
@@ -21595,11 +21935,11 @@
       <c r="C139" t="s">
         <v>933</v>
       </c>
-      <c r="D139" t="s">
+      <c r="D139" s="1" t="s">
         <v>1323</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" spans="1:4" ht="70">
       <c r="A140" t="s">
         <v>32</v>
       </c>
@@ -21609,11 +21949,11 @@
       <c r="C140" t="s">
         <v>934</v>
       </c>
-      <c r="D140" t="s">
+      <c r="D140" s="1" t="s">
         <v>1329</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" spans="1:4">
       <c r="A141" t="s">
         <v>125</v>
       </c>
@@ -21623,11 +21963,11 @@
       <c r="C141" t="s">
         <v>935</v>
       </c>
-      <c r="D141" t="e">
+      <c r="D141" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="142">
+    <row r="142" spans="1:4">
       <c r="A142" t="s">
         <v>126</v>
       </c>
@@ -21637,11 +21977,11 @@
       <c r="C142" t="s">
         <v>936</v>
       </c>
-      <c r="D142" t="e">
+      <c r="D142" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="143">
+    <row r="143" spans="1:4" ht="409">
       <c r="A143" t="s">
         <v>127</v>
       </c>
@@ -21651,11 +21991,11 @@
       <c r="C143" t="s">
         <v>937</v>
       </c>
-      <c r="D143" t="s">
+      <c r="D143" s="1" t="s">
         <v>1330</v>
       </c>
     </row>
-    <row r="144">
+    <row r="144" spans="1:4">
       <c r="A144" t="s">
         <v>128</v>
       </c>
@@ -21665,11 +22005,11 @@
       <c r="C144" t="s">
         <v>938</v>
       </c>
-      <c r="D144" t="e">
+      <c r="D144" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" spans="1:4" ht="409">
       <c r="A145" t="s">
         <v>129</v>
       </c>
@@ -21679,11 +22019,11 @@
       <c r="C145" t="s">
         <v>939</v>
       </c>
-      <c r="D145" t="s">
+      <c r="D145" s="1" t="s">
         <v>1331</v>
       </c>
     </row>
-    <row r="146">
+    <row r="146" spans="1:4" ht="409">
       <c r="A146" t="s">
         <v>130</v>
       </c>
@@ -21693,11 +22033,11 @@
       <c r="C146" t="s">
         <v>940</v>
       </c>
-      <c r="D146" t="s">
+      <c r="D146" s="1" t="s">
         <v>1332</v>
       </c>
     </row>
-    <row r="147">
+    <row r="147" spans="1:4">
       <c r="A147" t="s">
         <v>131</v>
       </c>
@@ -21707,11 +22047,11 @@
       <c r="C147" t="s">
         <v>941</v>
       </c>
-      <c r="D147" t="e">
+      <c r="D147" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="148">
+    <row r="148" spans="1:4" ht="56">
       <c r="A148" t="s">
         <v>132</v>
       </c>
@@ -21721,11 +22061,11 @@
       <c r="C148" t="s">
         <v>942</v>
       </c>
-      <c r="D148" t="s">
+      <c r="D148" s="1" t="s">
         <v>1323</v>
       </c>
     </row>
-    <row r="149">
+    <row r="149" spans="1:4" ht="70">
       <c r="A149" t="s">
         <v>133</v>
       </c>
@@ -21735,11 +22075,11 @@
       <c r="C149" t="s">
         <v>943</v>
       </c>
-      <c r="D149" t="s">
+      <c r="D149" s="1" t="s">
         <v>1329</v>
       </c>
     </row>
-    <row r="150">
+    <row r="150" spans="1:4" ht="56">
       <c r="A150" t="s">
         <v>79</v>
       </c>
@@ -21749,11 +22089,11 @@
       <c r="C150" t="s">
         <v>944</v>
       </c>
-      <c r="D150" t="s">
+      <c r="D150" s="1" t="s">
         <v>1333</v>
       </c>
     </row>
-    <row r="151">
+    <row r="151" spans="1:4" ht="168">
       <c r="A151" t="s">
         <v>134</v>
       </c>
@@ -21763,11 +22103,11 @@
       <c r="C151" t="s">
         <v>945</v>
       </c>
-      <c r="D151" t="s">
+      <c r="D151" s="1" t="s">
         <v>1334</v>
       </c>
     </row>
-    <row r="152">
+    <row r="152" spans="1:4">
       <c r="A152" t="s">
         <v>135</v>
       </c>
@@ -21777,11 +22117,11 @@
       <c r="C152" t="s">
         <v>946</v>
       </c>
-      <c r="D152" t="e">
+      <c r="D152" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="153">
+    <row r="153" spans="1:4" ht="409">
       <c r="A153" t="s">
         <v>136</v>
       </c>
@@ -21791,11 +22131,11 @@
       <c r="C153" t="s">
         <v>947</v>
       </c>
-      <c r="D153" t="s">
+      <c r="D153" s="1" t="s">
         <v>1335</v>
       </c>
     </row>
-    <row r="154">
+    <row r="154" spans="1:4">
       <c r="A154" t="s">
         <v>137</v>
       </c>
@@ -21805,11 +22145,11 @@
       <c r="C154" t="s">
         <v>948</v>
       </c>
-      <c r="D154" t="e">
+      <c r="D154" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="155">
+    <row r="155" spans="1:4" ht="168">
       <c r="A155" t="s">
         <v>138</v>
       </c>
@@ -21819,11 +22159,11 @@
       <c r="C155" t="s">
         <v>949</v>
       </c>
-      <c r="D155" t="s">
+      <c r="D155" s="1" t="s">
         <v>1334</v>
       </c>
     </row>
-    <row r="156">
+    <row r="156" spans="1:4" ht="409">
       <c r="A156" t="s">
         <v>139</v>
       </c>
@@ -21833,11 +22173,11 @@
       <c r="C156" t="s">
         <v>950</v>
       </c>
-      <c r="D156" t="s">
+      <c r="D156" s="1" t="s">
         <v>1336</v>
       </c>
     </row>
-    <row r="157">
+    <row r="157" spans="1:4" ht="409">
       <c r="A157" t="s">
         <v>24</v>
       </c>
@@ -21847,11 +22187,11 @@
       <c r="C157" t="s">
         <v>951</v>
       </c>
-      <c r="D157" t="s">
+      <c r="D157" s="1" t="s">
         <v>1337</v>
       </c>
     </row>
-    <row r="158">
+    <row r="158" spans="1:4">
       <c r="A158" t="s">
         <v>140</v>
       </c>
@@ -21861,11 +22201,11 @@
       <c r="C158" t="s">
         <v>952</v>
       </c>
-      <c r="D158" t="e">
+      <c r="D158" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="159">
+    <row r="159" spans="1:4">
       <c r="A159" t="s">
         <v>141</v>
       </c>
@@ -21875,11 +22215,11 @@
       <c r="C159" t="s">
         <v>953</v>
       </c>
-      <c r="D159" t="e">
+      <c r="D159" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="160">
+    <row r="160" spans="1:4" ht="84">
       <c r="A160" t="s">
         <v>142</v>
       </c>
@@ -21889,11 +22229,11 @@
       <c r="C160" t="s">
         <v>842</v>
       </c>
-      <c r="D160" t="s">
+      <c r="D160" s="1" t="s">
         <v>1338</v>
       </c>
     </row>
-    <row r="161">
+    <row r="161" spans="1:4" ht="409">
       <c r="A161" t="s">
         <v>143</v>
       </c>
@@ -21903,11 +22243,11 @@
       <c r="C161" t="s">
         <v>954</v>
       </c>
-      <c r="D161" t="s">
+      <c r="D161" s="1" t="s">
         <v>1339</v>
       </c>
     </row>
-    <row r="162">
+    <row r="162" spans="1:4" ht="409">
       <c r="A162" t="s">
         <v>144</v>
       </c>
@@ -21917,11 +22257,11 @@
       <c r="C162" t="s">
         <v>955</v>
       </c>
-      <c r="D162" t="s">
+      <c r="D162" s="1" t="s">
         <v>1340</v>
       </c>
     </row>
-    <row r="163">
+    <row r="163" spans="1:4">
       <c r="A163" t="s">
         <v>79</v>
       </c>
@@ -21931,11 +22271,11 @@
       <c r="C163" t="s">
         <v>956</v>
       </c>
-      <c r="D163" t="e">
+      <c r="D163" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="164">
+    <row r="164" spans="1:4" ht="409">
       <c r="A164" t="s">
         <v>145</v>
       </c>
@@ -21945,11 +22285,11 @@
       <c r="C164" t="s">
         <v>957</v>
       </c>
-      <c r="D164" t="s">
+      <c r="D164" s="1" t="s">
         <v>1341</v>
       </c>
     </row>
-    <row r="165">
+    <row r="165" spans="1:4" ht="409">
       <c r="A165" t="s">
         <v>146</v>
       </c>
@@ -21959,11 +22299,11 @@
       <c r="C165" t="s">
         <v>958</v>
       </c>
-      <c r="D165" t="s">
+      <c r="D165" s="1" t="s">
         <v>1341</v>
       </c>
     </row>
-    <row r="166">
+    <row r="166" spans="1:4">
       <c r="A166" t="s">
         <v>147</v>
       </c>
@@ -21973,11 +22313,11 @@
       <c r="C166" t="s">
         <v>959</v>
       </c>
-      <c r="D166" t="e">
+      <c r="D166" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="167">
+    <row r="167" spans="1:4" ht="409">
       <c r="A167" t="s">
         <v>148</v>
       </c>
@@ -21987,11 +22327,11 @@
       <c r="C167" t="s">
         <v>960</v>
       </c>
-      <c r="D167" t="s">
+      <c r="D167" s="1" t="s">
         <v>1342</v>
       </c>
     </row>
-    <row r="168">
+    <row r="168" spans="1:4" ht="409">
       <c r="A168" t="s">
         <v>95</v>
       </c>
@@ -22001,11 +22341,11 @@
       <c r="C168" t="s">
         <v>961</v>
       </c>
-      <c r="D168" t="s">
+      <c r="D168" s="1" t="s">
         <v>1343</v>
       </c>
     </row>
-    <row r="169">
+    <row r="169" spans="1:4">
       <c r="A169" t="s">
         <v>149</v>
       </c>
@@ -22015,11 +22355,11 @@
       <c r="C169" t="s">
         <v>962</v>
       </c>
-      <c r="D169" t="e">
+      <c r="D169" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="170">
+    <row r="170" spans="1:4">
       <c r="A170" t="s">
         <v>114</v>
       </c>
@@ -22029,11 +22369,11 @@
       <c r="C170" t="s">
         <v>963</v>
       </c>
-      <c r="D170" t="e">
+      <c r="D170" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="171">
+    <row r="171" spans="1:4" ht="56">
       <c r="A171" t="s">
         <v>150</v>
       </c>
@@ -22043,11 +22383,11 @@
       <c r="C171" t="s">
         <v>964</v>
       </c>
-      <c r="D171" t="s">
+      <c r="D171" s="1" t="s">
         <v>1344</v>
       </c>
     </row>
-    <row r="172">
+    <row r="172" spans="1:4">
       <c r="A172" t="s">
         <v>151</v>
       </c>
@@ -22057,11 +22397,11 @@
       <c r="C172" t="s">
         <v>965</v>
       </c>
-      <c r="D172" t="e">
+      <c r="D172" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="173">
+    <row r="173" spans="1:4" ht="409">
       <c r="A173" t="s">
         <v>152</v>
       </c>
@@ -22071,11 +22411,11 @@
       <c r="C173" t="s">
         <v>966</v>
       </c>
-      <c r="D173" t="s">
+      <c r="D173" s="1" t="s">
         <v>1345</v>
       </c>
     </row>
-    <row r="174">
+    <row r="174" spans="1:4" ht="409">
       <c r="A174" t="s">
         <v>153</v>
       </c>
@@ -22085,11 +22425,11 @@
       <c r="C174" t="s">
         <v>967</v>
       </c>
-      <c r="D174" t="s">
+      <c r="D174" s="1" t="s">
         <v>1327</v>
       </c>
     </row>
-    <row r="175">
+    <row r="175" spans="1:4" ht="409">
       <c r="A175" t="s">
         <v>41</v>
       </c>
@@ -22099,11 +22439,11 @@
       <c r="C175" t="s">
         <v>968</v>
       </c>
-      <c r="D175" t="s">
+      <c r="D175" s="1" t="s">
         <v>1346</v>
       </c>
     </row>
-    <row r="176">
+    <row r="176" spans="1:4" ht="409">
       <c r="A176" t="s">
         <v>154</v>
       </c>
@@ -22113,11 +22453,11 @@
       <c r="C176" t="s">
         <v>969</v>
       </c>
-      <c r="D176" t="s">
+      <c r="D176" s="1" t="s">
         <v>1347</v>
       </c>
     </row>
-    <row r="177">
+    <row r="177" spans="1:4" ht="409">
       <c r="A177" t="s">
         <v>155</v>
       </c>
@@ -22127,11 +22467,11 @@
       <c r="C177" t="s">
         <v>970</v>
       </c>
-      <c r="D177" t="s">
+      <c r="D177" s="1" t="s">
         <v>1348</v>
       </c>
     </row>
-    <row r="178">
+    <row r="178" spans="1:4" ht="112">
       <c r="A178" t="s">
         <v>156</v>
       </c>
@@ -22141,11 +22481,11 @@
       <c r="C178" t="s">
         <v>971</v>
       </c>
-      <c r="D178" t="s">
+      <c r="D178" s="1" t="s">
         <v>1349</v>
       </c>
     </row>
-    <row r="179">
+    <row r="179" spans="1:4">
       <c r="A179" t="s">
         <v>5</v>
       </c>
@@ -22155,11 +22495,11 @@
       <c r="C179" t="s">
         <v>972</v>
       </c>
-      <c r="D179" t="e">
+      <c r="D179" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="180">
+    <row r="180" spans="1:4">
       <c r="A180" t="s">
         <v>157</v>
       </c>
@@ -22169,11 +22509,11 @@
       <c r="C180" t="s">
         <v>973</v>
       </c>
-      <c r="D180" t="e">
+      <c r="D180" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="181">
+    <row r="181" spans="1:4" ht="210">
       <c r="A181" t="s">
         <v>158</v>
       </c>
@@ -22183,11 +22523,11 @@
       <c r="C181" t="s">
         <v>974</v>
       </c>
-      <c r="D181" t="s">
+      <c r="D181" s="1" t="s">
         <v>1269</v>
       </c>
     </row>
-    <row r="182">
+    <row r="182" spans="1:4" ht="409">
       <c r="A182" t="s">
         <v>33</v>
       </c>
@@ -22197,11 +22537,11 @@
       <c r="C182" t="s">
         <v>975</v>
       </c>
-      <c r="D182" t="s">
+      <c r="D182" s="1" t="s">
         <v>1350</v>
       </c>
     </row>
-    <row r="183">
+    <row r="183" spans="1:4" ht="409">
       <c r="A183" t="s">
         <v>159</v>
       </c>
@@ -22211,11 +22551,11 @@
       <c r="C183" t="s">
         <v>976</v>
       </c>
-      <c r="D183" t="s">
+      <c r="D183" s="1" t="s">
         <v>1351</v>
       </c>
     </row>
-    <row r="184">
+    <row r="184" spans="1:4">
       <c r="A184" t="s">
         <v>79</v>
       </c>
@@ -22225,11 +22565,11 @@
       <c r="C184" t="s">
         <v>977</v>
       </c>
-      <c r="D184" t="e">
+      <c r="D184" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="185">
+    <row r="185" spans="1:4" ht="409">
       <c r="A185" t="s">
         <v>160</v>
       </c>
@@ -22239,11 +22579,11 @@
       <c r="C185" t="s">
         <v>978</v>
       </c>
-      <c r="D185" t="s">
+      <c r="D185" s="1" t="s">
         <v>1352</v>
       </c>
     </row>
-    <row r="186">
+    <row r="186" spans="1:4" ht="409">
       <c r="A186" t="s">
         <v>161</v>
       </c>
@@ -22253,11 +22593,11 @@
       <c r="C186" t="s">
         <v>979</v>
       </c>
-      <c r="D186" t="s">
+      <c r="D186" s="1" t="s">
         <v>1342</v>
       </c>
     </row>
-    <row r="187">
+    <row r="187" spans="1:4" ht="409">
       <c r="A187" t="s">
         <v>84</v>
       </c>
@@ -22267,11 +22607,11 @@
       <c r="C187" t="s">
         <v>980</v>
       </c>
-      <c r="D187" t="s">
+      <c r="D187" s="1" t="s">
         <v>1353</v>
       </c>
     </row>
-    <row r="188">
+    <row r="188" spans="1:4" ht="409">
       <c r="A188" t="s">
         <v>162</v>
       </c>
@@ -22281,11 +22621,11 @@
       <c r="C188" t="s">
         <v>981</v>
       </c>
-      <c r="D188" t="s">
+      <c r="D188" s="1" t="s">
         <v>1354</v>
       </c>
     </row>
-    <row r="189">
+    <row r="189" spans="1:4" ht="154">
       <c r="A189" t="s">
         <v>163</v>
       </c>
@@ -22295,11 +22635,11 @@
       <c r="C189" t="s">
         <v>982</v>
       </c>
-      <c r="D189" t="s">
+      <c r="D189" s="1" t="s">
         <v>1300</v>
       </c>
     </row>
-    <row r="190">
+    <row r="190" spans="1:4" ht="409">
       <c r="A190" t="s">
         <v>164</v>
       </c>
@@ -22309,11 +22649,11 @@
       <c r="C190" t="s">
         <v>983</v>
       </c>
-      <c r="D190" t="s">
+      <c r="D190" s="1" t="s">
         <v>1355</v>
       </c>
     </row>
-    <row r="191">
+    <row r="191" spans="1:4">
       <c r="A191" t="s">
         <v>165</v>
       </c>
@@ -22323,11 +22663,11 @@
       <c r="C191" t="s">
         <v>984</v>
       </c>
-      <c r="D191" t="e">
+      <c r="D191" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="192">
+    <row r="192" spans="1:4" ht="409">
       <c r="A192" t="s">
         <v>166</v>
       </c>
@@ -22337,11 +22677,11 @@
       <c r="C192" t="s">
         <v>985</v>
       </c>
-      <c r="D192" t="s">
+      <c r="D192" s="1" t="s">
         <v>1356</v>
       </c>
     </row>
-    <row r="193">
+    <row r="193" spans="1:4" ht="409">
       <c r="A193" t="s">
         <v>89</v>
       </c>
@@ -22351,11 +22691,11 @@
       <c r="C193" t="s">
         <v>986</v>
       </c>
-      <c r="D193" t="s">
+      <c r="D193" s="1" t="s">
         <v>1357</v>
       </c>
     </row>
-    <row r="194">
+    <row r="194" spans="1:4" ht="409">
       <c r="A194" t="s">
         <v>167</v>
       </c>
@@ -22365,11 +22705,11 @@
       <c r="C194" t="s">
         <v>987</v>
       </c>
-      <c r="D194" t="s">
+      <c r="D194" s="1" t="s">
         <v>1358</v>
       </c>
     </row>
-    <row r="195">
+    <row r="195" spans="1:4" ht="409">
       <c r="A195" t="s">
         <v>35</v>
       </c>
@@ -22379,11 +22719,11 @@
       <c r="C195" t="s">
         <v>988</v>
       </c>
-      <c r="D195" t="s">
+      <c r="D195" s="1" t="s">
         <v>1359</v>
       </c>
     </row>
-    <row r="196">
+    <row r="196" spans="1:4" ht="210">
       <c r="A196" t="s">
         <v>168</v>
       </c>
@@ -22393,11 +22733,11 @@
       <c r="C196" t="s">
         <v>989</v>
       </c>
-      <c r="D196" t="s">
+      <c r="D196" s="1" t="s">
         <v>1269</v>
       </c>
     </row>
-    <row r="197">
+    <row r="197" spans="1:4" ht="409">
       <c r="A197" t="s">
         <v>169</v>
       </c>
@@ -22407,11 +22747,11 @@
       <c r="C197" t="s">
         <v>990</v>
       </c>
-      <c r="D197" t="s">
+      <c r="D197" s="1" t="s">
         <v>1360</v>
       </c>
     </row>
-    <row r="198">
+    <row r="198" spans="1:4" ht="409">
       <c r="A198" t="s">
         <v>170</v>
       </c>
@@ -22421,11 +22761,11 @@
       <c r="C198" t="s">
         <v>991</v>
       </c>
-      <c r="D198" t="s">
+      <c r="D198" s="1" t="s">
         <v>1361</v>
       </c>
     </row>
-    <row r="199">
+    <row r="199" spans="1:4" ht="409">
       <c r="A199" t="s">
         <v>114</v>
       </c>
@@ -22435,11 +22775,11 @@
       <c r="C199" t="s">
         <v>992</v>
       </c>
-      <c r="D199" t="s">
+      <c r="D199" s="1" t="s">
         <v>1362</v>
       </c>
     </row>
-    <row r="200">
+    <row r="200" spans="1:4" ht="409">
       <c r="A200" t="s">
         <v>43</v>
       </c>
@@ -22449,11 +22789,11 @@
       <c r="C200" t="s">
         <v>993</v>
       </c>
-      <c r="D200" t="s">
+      <c r="D200" s="1" t="s">
         <v>1363</v>
       </c>
     </row>
-    <row r="201">
+    <row r="201" spans="1:4" ht="409">
       <c r="A201" t="s">
         <v>171</v>
       </c>
@@ -22463,11 +22803,11 @@
       <c r="C201" t="s">
         <v>994</v>
       </c>
-      <c r="D201" t="s">
+      <c r="D201" s="1" t="s">
         <v>1364</v>
       </c>
     </row>
-    <row r="202">
+    <row r="202" spans="1:4">
       <c r="A202" t="s">
         <v>172</v>
       </c>
@@ -22477,11 +22817,11 @@
       <c r="C202" t="s">
         <v>995</v>
       </c>
-      <c r="D202" t="e">
+      <c r="D202" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="203">
+    <row r="203" spans="1:4" ht="409">
       <c r="A203" t="s">
         <v>173</v>
       </c>
@@ -22491,11 +22831,11 @@
       <c r="C203" t="s">
         <v>996</v>
       </c>
-      <c r="D203" t="s">
+      <c r="D203" s="1" t="s">
         <v>1314</v>
       </c>
     </row>
-    <row r="204">
+    <row r="204" spans="1:4" ht="409">
       <c r="A204" t="s">
         <v>174</v>
       </c>
@@ -22505,11 +22845,11 @@
       <c r="C204" t="s">
         <v>997</v>
       </c>
-      <c r="D204" t="s">
+      <c r="D204" s="1" t="s">
         <v>1365</v>
       </c>
     </row>
-    <row r="205">
+    <row r="205" spans="1:4" ht="409">
       <c r="A205" t="s">
         <v>24</v>
       </c>
@@ -22519,11 +22859,11 @@
       <c r="C205" t="s">
         <v>998</v>
       </c>
-      <c r="D205" t="s">
+      <c r="D205" s="1" t="s">
         <v>1366</v>
       </c>
     </row>
-    <row r="206">
+    <row r="206" spans="1:4" ht="409">
       <c r="A206" t="s">
         <v>175</v>
       </c>
@@ -22533,11 +22873,11 @@
       <c r="C206" t="s">
         <v>999</v>
       </c>
-      <c r="D206" t="s">
+      <c r="D206" s="1" t="s">
         <v>1367</v>
       </c>
     </row>
-    <row r="207">
+    <row r="207" spans="1:4" ht="409">
       <c r="A207" t="s">
         <v>176</v>
       </c>
@@ -22547,11 +22887,11 @@
       <c r="C207" t="s">
         <v>1000</v>
       </c>
-      <c r="D207" t="s">
+      <c r="D207" s="1" t="s">
         <v>1368</v>
       </c>
     </row>
-    <row r="208">
+    <row r="208" spans="1:4">
       <c r="A208" t="s">
         <v>177</v>
       </c>
@@ -22561,11 +22901,11 @@
       <c r="C208" t="s">
         <v>1001</v>
       </c>
-      <c r="D208" t="e">
+      <c r="D208" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="209">
+    <row r="209" spans="1:4">
       <c r="A209" t="s">
         <v>13</v>
       </c>
@@ -22575,11 +22915,11 @@
       <c r="C209" t="s">
         <v>1002</v>
       </c>
-      <c r="D209" t="e">
+      <c r="D209" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="210">
+    <row r="210" spans="1:4" ht="409">
       <c r="A210" t="s">
         <v>178</v>
       </c>
@@ -22589,11 +22929,11 @@
       <c r="C210" t="s">
         <v>1003</v>
       </c>
-      <c r="D210" t="s">
+      <c r="D210" s="1" t="s">
         <v>1369</v>
       </c>
     </row>
-    <row r="211">
+    <row r="211" spans="1:4" ht="409">
       <c r="A211" t="s">
         <v>118</v>
       </c>
@@ -22603,11 +22943,11 @@
       <c r="C211" t="s">
         <v>1004</v>
       </c>
-      <c r="D211" t="s">
+      <c r="D211" s="1" t="s">
         <v>1370</v>
       </c>
     </row>
-    <row r="212">
+    <row r="212" spans="1:4" ht="409">
       <c r="A212" t="s">
         <v>179</v>
       </c>
@@ -22617,11 +22957,11 @@
       <c r="C212" t="s">
         <v>1005</v>
       </c>
-      <c r="D212" t="s">
+      <c r="D212" s="1" t="s">
         <v>1371</v>
       </c>
     </row>
-    <row r="213">
+    <row r="213" spans="1:4" ht="409">
       <c r="A213" t="s">
         <v>180</v>
       </c>
@@ -22631,11 +22971,11 @@
       <c r="C213" t="s">
         <v>1006</v>
       </c>
-      <c r="D213" t="s">
+      <c r="D213" s="1" t="s">
         <v>1372</v>
       </c>
     </row>
-    <row r="214">
+    <row r="214" spans="1:4" ht="409">
       <c r="A214" t="s">
         <v>181</v>
       </c>
@@ -22645,11 +22985,11 @@
       <c r="C214" t="s">
         <v>1007</v>
       </c>
-      <c r="D214" t="s">
+      <c r="D214" s="1" t="s">
         <v>1373</v>
       </c>
     </row>
-    <row r="215">
+    <row r="215" spans="1:4" ht="409">
       <c r="A215" t="s">
         <v>182</v>
       </c>
@@ -22659,11 +22999,11 @@
       <c r="C215" t="s">
         <v>1008</v>
       </c>
-      <c r="D215" t="s">
+      <c r="D215" s="1" t="s">
         <v>1374</v>
       </c>
     </row>
-    <row r="216">
+    <row r="216" spans="1:4" ht="409">
       <c r="A216" t="s">
         <v>183</v>
       </c>
@@ -22673,11 +23013,11 @@
       <c r="C216" t="s">
         <v>1009</v>
       </c>
-      <c r="D216" t="s">
+      <c r="D216" s="1" t="s">
         <v>1375</v>
       </c>
     </row>
-    <row r="217">
+    <row r="217" spans="1:4">
       <c r="A217" t="s">
         <v>184</v>
       </c>
@@ -22687,11 +23027,11 @@
       <c r="C217" t="s">
         <v>1010</v>
       </c>
-      <c r="D217" t="e">
+      <c r="D217" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="218">
+    <row r="218" spans="1:4">
       <c r="A218" t="s">
         <v>185</v>
       </c>
@@ -22701,11 +23041,11 @@
       <c r="C218" t="s">
         <v>1011</v>
       </c>
-      <c r="D218" t="e">
+      <c r="D218" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="219">
+    <row r="219" spans="1:4" ht="409">
       <c r="A219" t="s">
         <v>5</v>
       </c>
@@ -22715,11 +23055,11 @@
       <c r="C219" t="s">
         <v>1012</v>
       </c>
-      <c r="D219" t="s">
+      <c r="D219" s="1" t="s">
         <v>1342</v>
       </c>
     </row>
-    <row r="220">
+    <row r="220" spans="1:4" ht="409">
       <c r="A220" t="s">
         <v>186</v>
       </c>
@@ -22729,11 +23069,11 @@
       <c r="C220" t="s">
         <v>1013</v>
       </c>
-      <c r="D220" t="s">
+      <c r="D220" s="1" t="s">
         <v>1376</v>
       </c>
     </row>
-    <row r="221">
+    <row r="221" spans="1:4">
       <c r="A221" t="s">
         <v>187</v>
       </c>
@@ -22743,11 +23083,11 @@
       <c r="C221" t="s">
         <v>1014</v>
       </c>
-      <c r="D221" t="e">
+      <c r="D221" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="222">
+    <row r="222" spans="1:4" ht="409">
       <c r="A222" t="s">
         <v>188</v>
       </c>
@@ -22757,11 +23097,11 @@
       <c r="C222" t="s">
         <v>1015</v>
       </c>
-      <c r="D222" t="s">
+      <c r="D222" s="1" t="s">
         <v>1377</v>
       </c>
     </row>
-    <row r="223">
+    <row r="223" spans="1:4" ht="409">
       <c r="A223" t="s">
         <v>189</v>
       </c>
@@ -22771,11 +23111,11 @@
       <c r="C223" t="s">
         <v>1016</v>
       </c>
-      <c r="D223" t="s">
+      <c r="D223" s="1" t="s">
         <v>1378</v>
       </c>
     </row>
-    <row r="224">
+    <row r="224" spans="1:4">
       <c r="A224" t="s">
         <v>190</v>
       </c>
@@ -22785,11 +23125,11 @@
       <c r="C224" t="s">
         <v>1017</v>
       </c>
-      <c r="D224" t="e">
+      <c r="D224" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="225">
+    <row r="225" spans="1:4" ht="409">
       <c r="A225" t="s">
         <v>191</v>
       </c>
@@ -22799,11 +23139,11 @@
       <c r="C225" t="s">
         <v>1018</v>
       </c>
-      <c r="D225" t="s">
+      <c r="D225" s="1" t="s">
         <v>1379</v>
       </c>
     </row>
-    <row r="226">
+    <row r="226" spans="1:4" ht="56">
       <c r="A226" t="s">
         <v>192</v>
       </c>
@@ -22813,11 +23153,11 @@
       <c r="C226" t="s">
         <v>1019</v>
       </c>
-      <c r="D226" t="s">
+      <c r="D226" s="1" t="s">
         <v>1323</v>
       </c>
     </row>
-    <row r="227">
+    <row r="227" spans="1:4">
       <c r="A227" t="s">
         <v>13</v>
       </c>
@@ -22827,11 +23167,11 @@
       <c r="C227" t="s">
         <v>1020</v>
       </c>
-      <c r="D227" t="e">
+      <c r="D227" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="228">
+    <row r="228" spans="1:4" ht="409">
       <c r="A228" t="s">
         <v>193</v>
       </c>
@@ -22841,11 +23181,11 @@
       <c r="C228" t="s">
         <v>1021</v>
       </c>
-      <c r="D228" t="s">
+      <c r="D228" s="1" t="s">
         <v>1380</v>
       </c>
     </row>
-    <row r="229">
+    <row r="229" spans="1:4">
       <c r="A229" t="s">
         <v>194</v>
       </c>
@@ -22855,11 +23195,11 @@
       <c r="C229" t="s">
         <v>1022</v>
       </c>
-      <c r="D229" t="e">
+      <c r="D229" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="230">
+    <row r="230" spans="1:4">
       <c r="A230" t="s">
         <v>195</v>
       </c>
@@ -22869,11 +23209,11 @@
       <c r="C230" t="s">
         <v>1023</v>
       </c>
-      <c r="D230" t="e">
+      <c r="D230" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="231">
+    <row r="231" spans="1:4" ht="56">
       <c r="A231" t="s">
         <v>81</v>
       </c>
@@ -22883,11 +23223,11 @@
       <c r="C231" t="s">
         <v>1024</v>
       </c>
-      <c r="D231" t="s">
+      <c r="D231" s="1" t="s">
         <v>1381</v>
       </c>
     </row>
-    <row r="232">
+    <row r="232" spans="1:4">
       <c r="A232" t="s">
         <v>185</v>
       </c>
@@ -22897,11 +23237,11 @@
       <c r="C232" t="s">
         <v>1025</v>
       </c>
-      <c r="D232" t="e">
+      <c r="D232" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="233">
+    <row r="233" spans="1:4">
       <c r="A233" t="s">
         <v>67</v>
       </c>
@@ -22911,11 +23251,11 @@
       <c r="C233" t="s">
         <v>864</v>
       </c>
-      <c r="D233" t="e">
+      <c r="D233" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="234">
+    <row r="234" spans="1:4" ht="154">
       <c r="A234" t="s">
         <v>196</v>
       </c>
@@ -22925,11 +23265,11 @@
       <c r="C234" t="s">
         <v>1026</v>
       </c>
-      <c r="D234" t="s">
+      <c r="D234" s="1" t="s">
         <v>1300</v>
       </c>
     </row>
-    <row r="235">
+    <row r="235" spans="1:4">
       <c r="A235" t="s">
         <v>197</v>
       </c>
@@ -22939,11 +23279,11 @@
       <c r="C235" t="s">
         <v>1027</v>
       </c>
-      <c r="D235" t="e">
+      <c r="D235" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="236">
+    <row r="236" spans="1:4" ht="409">
       <c r="A236" t="s">
         <v>198</v>
       </c>
@@ -22953,11 +23293,11 @@
       <c r="C236" t="s">
         <v>1028</v>
       </c>
-      <c r="D236" t="s">
+      <c r="D236" s="1" t="s">
         <v>1382</v>
       </c>
     </row>
-    <row r="237">
+    <row r="237" spans="1:4" ht="409">
       <c r="A237" t="s">
         <v>199</v>
       </c>
@@ -22967,11 +23307,11 @@
       <c r="C237" t="s">
         <v>1029</v>
       </c>
-      <c r="D237" t="s">
+      <c r="D237" s="1" t="s">
         <v>1383</v>
       </c>
     </row>
-    <row r="238">
+    <row r="238" spans="1:4" ht="42">
       <c r="A238" t="s">
         <v>59</v>
       </c>
@@ -22981,11 +23321,11 @@
       <c r="C238" t="s">
         <v>1030</v>
       </c>
-      <c r="D238" t="s">
+      <c r="D238" s="1" t="s">
         <v>1384</v>
       </c>
     </row>
-    <row r="239">
+    <row r="239" spans="1:4" ht="409">
       <c r="A239" t="s">
         <v>200</v>
       </c>
@@ -22995,11 +23335,11 @@
       <c r="C239" t="s">
         <v>1031</v>
       </c>
-      <c r="D239" t="s">
+      <c r="D239" s="1" t="s">
         <v>1385</v>
       </c>
     </row>
-    <row r="240">
+    <row r="240" spans="1:4" ht="56">
       <c r="A240" t="s">
         <v>201</v>
       </c>
@@ -23009,11 +23349,11 @@
       <c r="C240" t="s">
         <v>1032</v>
       </c>
-      <c r="D240" t="s">
+      <c r="D240" s="1" t="s">
         <v>1344</v>
       </c>
     </row>
-    <row r="241">
+    <row r="241" spans="1:4" ht="409">
       <c r="A241" t="s">
         <v>202</v>
       </c>
@@ -23023,11 +23363,11 @@
       <c r="C241" t="s">
         <v>1033</v>
       </c>
-      <c r="D241" t="s">
+      <c r="D241" s="1" t="s">
         <v>1386</v>
       </c>
     </row>
-    <row r="242">
+    <row r="242" spans="1:4">
       <c r="A242" t="s">
         <v>62</v>
       </c>
@@ -23037,11 +23377,11 @@
       <c r="C242" t="s">
         <v>1034</v>
       </c>
-      <c r="D242" t="e">
+      <c r="D242" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="243">
+    <row r="243" spans="1:4" ht="154">
       <c r="A243" t="s">
         <v>203</v>
       </c>
@@ -23051,11 +23391,11 @@
       <c r="C243" t="s">
         <v>1035</v>
       </c>
-      <c r="D243" t="s">
+      <c r="D243" s="1" t="s">
         <v>1300</v>
       </c>
     </row>
-    <row r="244">
+    <row r="244" spans="1:4">
       <c r="A244" t="s">
         <v>111</v>
       </c>
@@ -23065,11 +23405,11 @@
       <c r="C244" t="s">
         <v>1036</v>
       </c>
-      <c r="D244" t="e">
+      <c r="D244" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="245">
+    <row r="245" spans="1:4" ht="409">
       <c r="A245" t="s">
         <v>204</v>
       </c>
@@ -23079,11 +23419,11 @@
       <c r="C245" t="s">
         <v>1037</v>
       </c>
-      <c r="D245" t="s">
+      <c r="D245" s="1" t="s">
         <v>1387</v>
       </c>
     </row>
-    <row r="246">
+    <row r="246" spans="1:4">
       <c r="A246" t="s">
         <v>52</v>
       </c>
@@ -23093,11 +23433,11 @@
       <c r="C246" t="s">
         <v>1038</v>
       </c>
-      <c r="D246" t="e">
+      <c r="D246" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="247">
+    <row r="247" spans="1:4" ht="210">
       <c r="A247" t="s">
         <v>205</v>
       </c>
@@ -23107,11 +23447,11 @@
       <c r="C247" t="s">
         <v>1039</v>
       </c>
-      <c r="D247" t="s">
+      <c r="D247" s="1" t="s">
         <v>1388</v>
       </c>
     </row>
-    <row r="248">
+    <row r="248" spans="1:4" ht="409">
       <c r="A248" t="s">
         <v>206</v>
       </c>
@@ -23121,11 +23461,11 @@
       <c r="C248" t="s">
         <v>1040</v>
       </c>
-      <c r="D248" t="s">
+      <c r="D248" s="1" t="s">
         <v>1389</v>
       </c>
     </row>
-    <row r="249">
+    <row r="249" spans="1:4" ht="409">
       <c r="A249" t="s">
         <v>207</v>
       </c>
@@ -23135,11 +23475,11 @@
       <c r="C249" t="s">
         <v>1041</v>
       </c>
-      <c r="D249" t="s">
+      <c r="D249" s="1" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="250">
+    <row r="250" spans="1:4" ht="210">
       <c r="A250" t="s">
         <v>208</v>
       </c>
@@ -23149,11 +23489,11 @@
       <c r="C250" t="s">
         <v>1042</v>
       </c>
-      <c r="D250" t="s">
+      <c r="D250" s="1" t="s">
         <v>1269</v>
       </c>
     </row>
-    <row r="251">
+    <row r="251" spans="1:4" ht="409">
       <c r="A251" t="s">
         <v>209</v>
       </c>
@@ -23163,11 +23503,11 @@
       <c r="C251" t="s">
         <v>1043</v>
       </c>
-      <c r="D251" t="s">
+      <c r="D251" s="1" t="s">
         <v>1391</v>
       </c>
     </row>
-    <row r="252">
+    <row r="252" spans="1:4" ht="409">
       <c r="A252" t="s">
         <v>210</v>
       </c>
@@ -23177,11 +23517,11 @@
       <c r="C252" t="s">
         <v>1044</v>
       </c>
-      <c r="D252" t="s">
+      <c r="D252" s="1" t="s">
         <v>1392</v>
       </c>
     </row>
-    <row r="253">
+    <row r="253" spans="1:4">
       <c r="A253" t="s">
         <v>33</v>
       </c>
@@ -23191,11 +23531,11 @@
       <c r="C253" t="s">
         <v>1045</v>
       </c>
-      <c r="D253" t="e">
+      <c r="D253" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="254">
+    <row r="254" spans="1:4">
       <c r="A254" t="s">
         <v>43</v>
       </c>
@@ -23205,11 +23545,11 @@
       <c r="C254" t="s">
         <v>838</v>
       </c>
-      <c r="D254" t="e">
+      <c r="D254" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="255">
+    <row r="255" spans="1:4" ht="409">
       <c r="A255" t="s">
         <v>211</v>
       </c>
@@ -23219,11 +23559,11 @@
       <c r="C255" t="s">
         <v>1046</v>
       </c>
-      <c r="D255" t="s">
+      <c r="D255" s="1" t="s">
         <v>1393</v>
       </c>
     </row>
-    <row r="256">
+    <row r="256" spans="1:4" ht="409">
       <c r="A256" t="s">
         <v>212</v>
       </c>
@@ -23233,11 +23573,11 @@
       <c r="C256" t="s">
         <v>1047</v>
       </c>
-      <c r="D256" t="s">
+      <c r="D256" s="1" t="s">
         <v>1394</v>
       </c>
     </row>
-    <row r="257">
+    <row r="257" spans="1:4" ht="409">
       <c r="A257" t="s">
         <v>213</v>
       </c>
@@ -23247,11 +23587,11 @@
       <c r="C257" t="s">
         <v>1048</v>
       </c>
-      <c r="D257" t="s">
+      <c r="D257" s="1" t="s">
         <v>1395</v>
       </c>
     </row>
-    <row r="258">
+    <row r="258" spans="1:4">
       <c r="A258" t="s">
         <v>214</v>
       </c>
@@ -23261,11 +23601,11 @@
       <c r="C258" t="s">
         <v>1049</v>
       </c>
-      <c r="D258" t="e">
+      <c r="D258" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="259">
+    <row r="259" spans="1:4" ht="409">
       <c r="A259" t="s">
         <v>136</v>
       </c>
@@ -23275,11 +23615,11 @@
       <c r="C259" t="s">
         <v>1050</v>
       </c>
-      <c r="D259" t="s">
+      <c r="D259" s="1" t="s">
         <v>1396</v>
       </c>
     </row>
-    <row r="260">
+    <row r="260" spans="1:4" ht="409">
       <c r="A260" t="s">
         <v>215</v>
       </c>
@@ -23289,11 +23629,11 @@
       <c r="C260" t="s">
         <v>1051</v>
       </c>
-      <c r="D260" t="s">
+      <c r="D260" s="1" t="s">
         <v>1397</v>
       </c>
     </row>
-    <row r="261">
+    <row r="261" spans="1:4">
       <c r="A261" t="s">
         <v>216</v>
       </c>
@@ -23303,11 +23643,11 @@
       <c r="C261" t="s">
         <v>1052</v>
       </c>
-      <c r="D261" t="e">
+      <c r="D261" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="262">
+    <row r="262" spans="1:4">
       <c r="A262" t="s">
         <v>217</v>
       </c>
@@ -23317,11 +23657,11 @@
       <c r="C262" t="s">
         <v>1053</v>
       </c>
-      <c r="D262" t="e">
+      <c r="D262" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="263">
+    <row r="263" spans="1:4" ht="409">
       <c r="A263" t="s">
         <v>218</v>
       </c>
@@ -23331,11 +23671,11 @@
       <c r="C263" t="s">
         <v>1054</v>
       </c>
-      <c r="D263" t="s">
+      <c r="D263" s="1" t="s">
         <v>1398</v>
       </c>
     </row>
-    <row r="264">
+    <row r="264" spans="1:4">
       <c r="A264" t="s">
         <v>219</v>
       </c>
@@ -23345,11 +23685,11 @@
       <c r="C264" t="s">
         <v>1055</v>
       </c>
-      <c r="D264" t="e">
+      <c r="D264" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="265">
+    <row r="265" spans="1:4" ht="409">
       <c r="A265" t="s">
         <v>220</v>
       </c>
@@ -23359,11 +23699,11 @@
       <c r="C265" t="s">
         <v>1056</v>
       </c>
-      <c r="D265" t="s">
+      <c r="D265" s="1" t="s">
         <v>1399</v>
       </c>
     </row>
-    <row r="266">
+    <row r="266" spans="1:4" ht="210">
       <c r="A266" t="s">
         <v>42</v>
       </c>
@@ -23373,11 +23713,11 @@
       <c r="C266" t="s">
         <v>837</v>
       </c>
-      <c r="D266" t="s">
+      <c r="D266" s="1" t="s">
         <v>1269</v>
       </c>
     </row>
-    <row r="267">
+    <row r="267" spans="1:4">
       <c r="A267" t="s">
         <v>185</v>
       </c>
@@ -23387,11 +23727,11 @@
       <c r="C267" t="s">
         <v>1057</v>
       </c>
-      <c r="D267" t="e">
+      <c r="D267" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="268">
+    <row r="268" spans="1:4">
       <c r="A268" t="s">
         <v>221</v>
       </c>
@@ -23401,11 +23741,11 @@
       <c r="C268" t="s">
         <v>1058</v>
       </c>
-      <c r="D268" t="e">
+      <c r="D268" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="269">
+    <row r="269" spans="1:4">
       <c r="A269" t="s">
         <v>103</v>
       </c>
@@ -23415,11 +23755,11 @@
       <c r="C269" t="s">
         <v>1059</v>
       </c>
-      <c r="D269" t="e">
+      <c r="D269" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="270">
+    <row r="270" spans="1:4">
       <c r="A270" t="s">
         <v>222</v>
       </c>
@@ -23429,11 +23769,11 @@
       <c r="C270" t="s">
         <v>1060</v>
       </c>
-      <c r="D270" t="e">
+      <c r="D270" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="271">
+    <row r="271" spans="1:4">
       <c r="A271" t="s">
         <v>223</v>
       </c>
@@ -23443,11 +23783,11 @@
       <c r="C271" t="s">
         <v>1061</v>
       </c>
-      <c r="D271" t="e">
+      <c r="D271" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="272">
+    <row r="272" spans="1:4" ht="409">
       <c r="A272" t="s">
         <v>224</v>
       </c>
@@ -23457,11 +23797,11 @@
       <c r="C272" t="s">
         <v>1062</v>
       </c>
-      <c r="D272" t="s">
+      <c r="D272" s="1" t="s">
         <v>1400</v>
       </c>
     </row>
-    <row r="273">
+    <row r="273" spans="1:4" ht="210">
       <c r="A273" t="s">
         <v>225</v>
       </c>
@@ -23471,11 +23811,11 @@
       <c r="C273" t="s">
         <v>1063</v>
       </c>
-      <c r="D273" t="s">
+      <c r="D273" s="1" t="s">
         <v>1269</v>
       </c>
     </row>
-    <row r="274">
+    <row r="274" spans="1:4" ht="154">
       <c r="A274" t="s">
         <v>226</v>
       </c>
@@ -23485,11 +23825,11 @@
       <c r="C274" t="s">
         <v>1064</v>
       </c>
-      <c r="D274" t="s">
+      <c r="D274" s="1" t="s">
         <v>1300</v>
       </c>
     </row>
-    <row r="275">
+    <row r="275" spans="1:4" ht="409">
       <c r="A275" t="s">
         <v>5</v>
       </c>
@@ -23499,11 +23839,11 @@
       <c r="C275" t="s">
         <v>1065</v>
       </c>
-      <c r="D275" t="s">
+      <c r="D275" s="1" t="s">
         <v>1401</v>
       </c>
     </row>
-    <row r="276">
+    <row r="276" spans="1:4">
       <c r="A276" t="s">
         <v>227</v>
       </c>
@@ -23513,11 +23853,11 @@
       <c r="C276" t="s">
         <v>1066</v>
       </c>
-      <c r="D276" t="e">
+      <c r="D276" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="277">
+    <row r="277" spans="1:4" ht="409">
       <c r="A277" t="s">
         <v>228</v>
       </c>
@@ -23527,11 +23867,11 @@
       <c r="C277" t="s">
         <v>1067</v>
       </c>
-      <c r="D277" t="s">
+      <c r="D277" s="1" t="s">
         <v>1402</v>
       </c>
     </row>
-    <row r="278">
+    <row r="278" spans="1:4" ht="409">
       <c r="A278" t="s">
         <v>11</v>
       </c>
@@ -23541,11 +23881,11 @@
       <c r="C278" t="s">
         <v>1068</v>
       </c>
-      <c r="D278" t="s">
+      <c r="D278" s="1" t="s">
         <v>1403</v>
       </c>
     </row>
-    <row r="279">
+    <row r="279" spans="1:4">
       <c r="A279" t="s">
         <v>229</v>
       </c>
@@ -23555,11 +23895,11 @@
       <c r="C279" t="s">
         <v>1069</v>
       </c>
-      <c r="D279" t="e">
+      <c r="D279" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="280">
+    <row r="280" spans="1:4" ht="409">
       <c r="A280" t="s">
         <v>230</v>
       </c>
@@ -23569,11 +23909,11 @@
       <c r="C280" t="s">
         <v>1070</v>
       </c>
-      <c r="D280" t="s">
+      <c r="D280" s="1" t="s">
         <v>1404</v>
       </c>
     </row>
-    <row r="281">
+    <row r="281" spans="1:4">
       <c r="A281" t="s">
         <v>231</v>
       </c>
@@ -23583,11 +23923,11 @@
       <c r="C281" t="s">
         <v>1071</v>
       </c>
-      <c r="D281" t="e">
+      <c r="D281" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="282">
+    <row r="282" spans="1:4" ht="409">
       <c r="A282" t="s">
         <v>232</v>
       </c>
@@ -23597,11 +23937,11 @@
       <c r="C282" t="s">
         <v>1072</v>
       </c>
-      <c r="D282" t="s">
+      <c r="D282" s="1" t="s">
         <v>1405</v>
       </c>
     </row>
-    <row r="283">
+    <row r="283" spans="1:4">
       <c r="A283" t="s">
         <v>233</v>
       </c>
@@ -23611,11 +23951,11 @@
       <c r="C283" t="s">
         <v>1073</v>
       </c>
-      <c r="D283" t="e">
+      <c r="D283" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="284">
+    <row r="284" spans="1:4">
       <c r="A284" t="s">
         <v>234</v>
       </c>
@@ -23625,11 +23965,11 @@
       <c r="C284" t="s">
         <v>1074</v>
       </c>
-      <c r="D284" t="e">
+      <c r="D284" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="285">
+    <row r="285" spans="1:4" ht="409">
       <c r="A285" t="s">
         <v>65</v>
       </c>
@@ -23639,11 +23979,11 @@
       <c r="C285" t="s">
         <v>1075</v>
       </c>
-      <c r="D285" t="s">
+      <c r="D285" s="1" t="s">
         <v>1406</v>
       </c>
     </row>
-    <row r="286">
+    <row r="286" spans="1:4" ht="409">
       <c r="A286" t="s">
         <v>24</v>
       </c>
@@ -23653,11 +23993,11 @@
       <c r="C286" t="s">
         <v>1076</v>
       </c>
-      <c r="D286" t="s">
+      <c r="D286" s="1" t="s">
         <v>1407</v>
       </c>
     </row>
-    <row r="287">
+    <row r="287" spans="1:4" ht="409">
       <c r="A287" t="s">
         <v>235</v>
       </c>
@@ -23667,11 +24007,11 @@
       <c r="C287" t="s">
         <v>1077</v>
       </c>
-      <c r="D287" t="s">
+      <c r="D287" s="1" t="s">
         <v>1408</v>
       </c>
     </row>
-    <row r="288">
+    <row r="288" spans="1:4" ht="409">
       <c r="A288" t="s">
         <v>236</v>
       </c>
@@ -23681,11 +24021,11 @@
       <c r="C288" t="s">
         <v>1078</v>
       </c>
-      <c r="D288" t="s">
+      <c r="D288" s="1" t="s">
         <v>1409</v>
       </c>
     </row>
-    <row r="289">
+    <row r="289" spans="1:4" ht="70">
       <c r="A289" t="s">
         <v>237</v>
       </c>
@@ -23695,11 +24035,11 @@
       <c r="C289" t="s">
         <v>1079</v>
       </c>
-      <c r="D289" t="s">
+      <c r="D289" s="1" t="s">
         <v>1329</v>
       </c>
     </row>
-    <row r="290">
+    <row r="290" spans="1:4">
       <c r="A290" t="s">
         <v>238</v>
       </c>
@@ -23709,11 +24049,11 @@
       <c r="C290" t="s">
         <v>1080</v>
       </c>
-      <c r="D290" t="e">
+      <c r="D290" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="291">
+    <row r="291" spans="1:4" ht="409">
       <c r="A291" t="s">
         <v>239</v>
       </c>
@@ -23723,11 +24063,11 @@
       <c r="C291" t="s">
         <v>1081</v>
       </c>
-      <c r="D291" t="s">
+      <c r="D291" s="1" t="s">
         <v>1410</v>
       </c>
     </row>
-    <row r="292">
+    <row r="292" spans="1:4" ht="409">
       <c r="A292" t="s">
         <v>240</v>
       </c>
@@ -23737,11 +24077,11 @@
       <c r="C292" t="s">
         <v>1082</v>
       </c>
-      <c r="D292" t="s">
+      <c r="D292" s="1" t="s">
         <v>1411</v>
       </c>
     </row>
-    <row r="293">
+    <row r="293" spans="1:4" ht="126">
       <c r="A293" t="s">
         <v>241</v>
       </c>
@@ -23751,11 +24091,11 @@
       <c r="C293" t="s">
         <v>1083</v>
       </c>
-      <c r="D293" t="s">
+      <c r="D293" s="1" t="s">
         <v>1412</v>
       </c>
     </row>
-    <row r="294">
+    <row r="294" spans="1:4">
       <c r="A294" t="s">
         <v>242</v>
       </c>
@@ -23765,11 +24105,11 @@
       <c r="C294" t="s">
         <v>1084</v>
       </c>
-      <c r="D294" t="e">
+      <c r="D294" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="295">
+    <row r="295" spans="1:4" ht="210">
       <c r="A295" t="s">
         <v>243</v>
       </c>
@@ -23779,11 +24119,11 @@
       <c r="C295" t="s">
         <v>1085</v>
       </c>
-      <c r="D295" t="s">
+      <c r="D295" s="1" t="s">
         <v>1269</v>
       </c>
     </row>
-    <row r="296">
+    <row r="296" spans="1:4">
       <c r="A296" t="s">
         <v>244</v>
       </c>
@@ -23793,11 +24133,11 @@
       <c r="C296" t="s">
         <v>1086</v>
       </c>
-      <c r="D296" t="e">
+      <c r="D296" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="297">
+    <row r="297" spans="1:4" ht="409">
       <c r="A297" t="s">
         <v>245</v>
       </c>
@@ -23807,11 +24147,11 @@
       <c r="C297" t="s">
         <v>1087</v>
       </c>
-      <c r="D297" t="s">
+      <c r="D297" s="1" t="s">
         <v>1413</v>
       </c>
     </row>
-    <row r="298">
+    <row r="298" spans="1:4" ht="409">
       <c r="A298" t="s">
         <v>246</v>
       </c>
@@ -23821,11 +24161,11 @@
       <c r="C298" t="s">
         <v>1088</v>
       </c>
-      <c r="D298" t="s">
+      <c r="D298" s="1" t="s">
         <v>1414</v>
       </c>
     </row>
-    <row r="299">
+    <row r="299" spans="1:4" ht="266">
       <c r="A299" t="s">
         <v>247</v>
       </c>
@@ -23835,11 +24175,11 @@
       <c r="C299" t="s">
         <v>1089</v>
       </c>
-      <c r="D299" t="s">
+      <c r="D299" s="1" t="s">
         <v>1415</v>
       </c>
     </row>
-    <row r="300">
+    <row r="300" spans="1:4" ht="409">
       <c r="A300" t="s">
         <v>248</v>
       </c>
@@ -23849,11 +24189,11 @@
       <c r="C300" t="s">
         <v>1090</v>
       </c>
-      <c r="D300" t="s">
+      <c r="D300" s="1" t="s">
         <v>1416</v>
       </c>
     </row>
-    <row r="301">
+    <row r="301" spans="1:4">
       <c r="A301" t="s">
         <v>62</v>
       </c>
@@ -23863,11 +24203,11 @@
       <c r="C301" t="s">
         <v>1091</v>
       </c>
-      <c r="D301" t="e">
+      <c r="D301" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="302">
+    <row r="302" spans="1:4" ht="409">
       <c r="A302" t="s">
         <v>249</v>
       </c>
@@ -23877,11 +24217,11 @@
       <c r="C302" t="s">
         <v>1092</v>
       </c>
-      <c r="D302" t="s">
+      <c r="D302" s="1" t="s">
         <v>1417</v>
       </c>
     </row>
-    <row r="303">
+    <row r="303" spans="1:4" ht="409">
       <c r="A303" t="s">
         <v>250</v>
       </c>
@@ -23891,11 +24231,11 @@
       <c r="C303" t="s">
         <v>1093</v>
       </c>
-      <c r="D303" t="s">
+      <c r="D303" s="1" t="s">
         <v>1418</v>
       </c>
     </row>
-    <row r="304">
+    <row r="304" spans="1:4" ht="409">
       <c r="A304" t="s">
         <v>191</v>
       </c>
@@ -23905,11 +24245,11 @@
       <c r="C304" t="s">
         <v>1094</v>
       </c>
-      <c r="D304" t="s">
+      <c r="D304" s="1" t="s">
         <v>1419</v>
       </c>
     </row>
-    <row r="305">
+    <row r="305" spans="1:4" ht="409">
       <c r="A305" t="s">
         <v>251</v>
       </c>
@@ -23919,11 +24259,11 @@
       <c r="C305" t="s">
         <v>1095</v>
       </c>
-      <c r="D305" t="s">
+      <c r="D305" s="1" t="s">
         <v>1420</v>
       </c>
     </row>
-    <row r="306">
+    <row r="306" spans="1:4" ht="409">
       <c r="A306" t="s">
         <v>252</v>
       </c>
@@ -23933,11 +24273,11 @@
       <c r="C306" t="s">
         <v>1096</v>
       </c>
-      <c r="D306" t="s">
+      <c r="D306" s="1" t="s">
         <v>1421</v>
       </c>
     </row>
-    <row r="307">
+    <row r="307" spans="1:4" ht="409">
       <c r="A307" t="s">
         <v>253</v>
       </c>
@@ -23947,11 +24287,11 @@
       <c r="C307" t="s">
         <v>1097</v>
       </c>
-      <c r="D307" t="s">
+      <c r="D307" s="1" t="s">
         <v>1422</v>
       </c>
     </row>
-    <row r="308">
+    <row r="308" spans="1:4" ht="409">
       <c r="A308" t="s">
         <v>254</v>
       </c>
@@ -23961,11 +24301,11 @@
       <c r="C308" t="s">
         <v>1098</v>
       </c>
-      <c r="D308" t="s">
+      <c r="D308" s="1" t="s">
         <v>1423</v>
       </c>
     </row>
-    <row r="309">
+    <row r="309" spans="1:4" ht="409">
       <c r="A309" t="s">
         <v>255</v>
       </c>
@@ -23975,11 +24315,11 @@
       <c r="C309" t="s">
         <v>1099</v>
       </c>
-      <c r="D309" t="s">
+      <c r="D309" s="1" t="s">
         <v>1424</v>
       </c>
     </row>
-    <row r="310">
+    <row r="310" spans="1:4" ht="409">
       <c r="A310" t="s">
         <v>207</v>
       </c>
@@ -23989,11 +24329,11 @@
       <c r="C310" t="s">
         <v>1100</v>
       </c>
-      <c r="D310" t="s">
+      <c r="D310" s="1" t="s">
         <v>1425</v>
       </c>
     </row>
-    <row r="311">
+    <row r="311" spans="1:4" ht="409">
       <c r="A311" t="s">
         <v>256</v>
       </c>
@@ -24003,11 +24343,11 @@
       <c r="C311" t="s">
         <v>1047</v>
       </c>
-      <c r="D311" t="s">
+      <c r="D311" s="1" t="s">
         <v>1426</v>
       </c>
     </row>
-    <row r="312">
+    <row r="312" spans="1:4" ht="112">
       <c r="A312" t="s">
         <v>257</v>
       </c>
@@ -24017,11 +24357,11 @@
       <c r="C312" t="s">
         <v>1101</v>
       </c>
-      <c r="D312" t="s">
+      <c r="D312" s="1" t="s">
         <v>1349</v>
       </c>
     </row>
-    <row r="313">
+    <row r="313" spans="1:4" ht="409">
       <c r="A313" t="s">
         <v>205</v>
       </c>
@@ -24031,11 +24371,11 @@
       <c r="C313" t="s">
         <v>1102</v>
       </c>
-      <c r="D313" t="s">
+      <c r="D313" s="1" t="s">
         <v>1427</v>
       </c>
     </row>
-    <row r="314">
+    <row r="314" spans="1:4" ht="56">
       <c r="A314" t="s">
         <v>258</v>
       </c>
@@ -24045,11 +24385,11 @@
       <c r="C314" t="s">
         <v>1103</v>
       </c>
-      <c r="D314" t="s">
+      <c r="D314" s="1" t="s">
         <v>1323</v>
       </c>
     </row>
-    <row r="315">
+    <row r="315" spans="1:4" ht="409">
       <c r="A315" t="s">
         <v>176</v>
       </c>
@@ -24059,11 +24399,11 @@
       <c r="C315" t="s">
         <v>1104</v>
       </c>
-      <c r="D315" t="s">
+      <c r="D315" s="1" t="s">
         <v>1428</v>
       </c>
     </row>
-    <row r="316">
+    <row r="316" spans="1:4" ht="210">
       <c r="A316" t="s">
         <v>107</v>
       </c>
@@ -24073,11 +24413,11 @@
       <c r="C316" t="s">
         <v>912</v>
       </c>
-      <c r="D316" t="s">
+      <c r="D316" s="1" t="s">
         <v>1269</v>
       </c>
     </row>
-    <row r="317">
+    <row r="317" spans="1:4" ht="409">
       <c r="A317" t="s">
         <v>41</v>
       </c>
@@ -24087,11 +24427,11 @@
       <c r="C317" t="s">
         <v>1105</v>
       </c>
-      <c r="D317" t="s">
+      <c r="D317" s="1" t="s">
         <v>1429</v>
       </c>
     </row>
-    <row r="318">
+    <row r="318" spans="1:4" ht="409">
       <c r="A318" t="s">
         <v>259</v>
       </c>
@@ -24101,11 +24441,11 @@
       <c r="C318" t="s">
         <v>1106</v>
       </c>
-      <c r="D318" t="s">
+      <c r="D318" s="1" t="s">
         <v>1430</v>
       </c>
     </row>
-    <row r="319">
+    <row r="319" spans="1:4">
       <c r="A319" t="s">
         <v>260</v>
       </c>
@@ -24115,11 +24455,11 @@
       <c r="C319" t="s">
         <v>1107</v>
       </c>
-      <c r="D319" t="e">
+      <c r="D319" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="320">
+    <row r="320" spans="1:4">
       <c r="A320" t="s">
         <v>261</v>
       </c>
@@ -24129,11 +24469,11 @@
       <c r="C320" t="s">
         <v>1108</v>
       </c>
-      <c r="D320" t="e">
+      <c r="D320" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="321">
+    <row r="321" spans="1:4" ht="409">
       <c r="A321" t="s">
         <v>24</v>
       </c>
@@ -24143,11 +24483,11 @@
       <c r="C321" t="s">
         <v>1109</v>
       </c>
-      <c r="D321" t="s">
+      <c r="D321" s="1" t="s">
         <v>1431</v>
       </c>
     </row>
-    <row r="322">
+    <row r="322" spans="1:4">
       <c r="A322" t="s">
         <v>262</v>
       </c>
@@ -24157,11 +24497,11 @@
       <c r="C322" t="s">
         <v>1110</v>
       </c>
-      <c r="D322" t="e">
+      <c r="D322" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="323">
+    <row r="323" spans="1:4" ht="409">
       <c r="A323" t="s">
         <v>263</v>
       </c>
@@ -24171,11 +24511,11 @@
       <c r="C323" t="s">
         <v>1111</v>
       </c>
-      <c r="D323" t="s">
+      <c r="D323" s="1" t="s">
         <v>1432</v>
       </c>
     </row>
-    <row r="324">
+    <row r="324" spans="1:4" ht="409">
       <c r="A324" t="s">
         <v>264</v>
       </c>
@@ -24185,11 +24525,11 @@
       <c r="C324" t="s">
         <v>1112</v>
       </c>
-      <c r="D324" t="s">
+      <c r="D324" s="1" t="s">
         <v>1433</v>
       </c>
     </row>
-    <row r="325">
+    <row r="325" spans="1:4">
       <c r="A325" t="s">
         <v>265</v>
       </c>
@@ -24199,11 +24539,11 @@
       <c r="C325" t="s">
         <v>1113</v>
       </c>
-      <c r="D325" t="e">
+      <c r="D325" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="326">
+    <row r="326" spans="1:4" ht="409">
       <c r="A326" t="s">
         <v>266</v>
       </c>
@@ -24213,11 +24553,11 @@
       <c r="C326" t="s">
         <v>1114</v>
       </c>
-      <c r="D326" t="s">
+      <c r="D326" s="1" t="s">
         <v>1434</v>
       </c>
     </row>
-    <row r="327">
+    <row r="327" spans="1:4" ht="154">
       <c r="A327" t="s">
         <v>59</v>
       </c>
@@ -24227,11 +24567,11 @@
       <c r="C327" t="s">
         <v>1115</v>
       </c>
-      <c r="D327" t="s">
+      <c r="D327" s="1" t="s">
         <v>1300</v>
       </c>
     </row>
-    <row r="328">
+    <row r="328" spans="1:4">
       <c r="A328" t="s">
         <v>267</v>
       </c>
@@ -24241,11 +24581,11 @@
       <c r="C328" t="s">
         <v>1116</v>
       </c>
-      <c r="D328" t="e">
+      <c r="D328" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="329">
+    <row r="329" spans="1:4">
       <c r="A329" t="s">
         <v>105</v>
       </c>
@@ -24255,11 +24595,11 @@
       <c r="C329" t="s">
         <v>1117</v>
       </c>
-      <c r="D329" t="e">
+      <c r="D329" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="330">
+    <row r="330" spans="1:4">
       <c r="A330" t="s">
         <v>268</v>
       </c>
@@ -24269,11 +24609,11 @@
       <c r="C330" t="s">
         <v>1118</v>
       </c>
-      <c r="D330" t="e">
+      <c r="D330" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="331">
+    <row r="331" spans="1:4" ht="409">
       <c r="A331" t="s">
         <v>84</v>
       </c>
@@ -24283,11 +24623,11 @@
       <c r="C331" t="s">
         <v>1119</v>
       </c>
-      <c r="D331" t="s">
+      <c r="D331" s="1" t="s">
         <v>1435</v>
       </c>
     </row>
-    <row r="332">
+    <row r="332" spans="1:4" ht="409">
       <c r="A332" t="s">
         <v>269</v>
       </c>
@@ -24297,11 +24637,11 @@
       <c r="C332" t="s">
         <v>1120</v>
       </c>
-      <c r="D332" t="s">
+      <c r="D332" s="1" t="s">
         <v>1436</v>
       </c>
     </row>
-    <row r="333">
+    <row r="333" spans="1:4">
       <c r="A333" t="s">
         <v>270</v>
       </c>
@@ -24311,11 +24651,11 @@
       <c r="C333" t="s">
         <v>1121</v>
       </c>
-      <c r="D333" t="e">
+      <c r="D333" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="334">
+    <row r="334" spans="1:4" ht="409">
       <c r="A334" t="s">
         <v>175</v>
       </c>
@@ -24325,11 +24665,11 @@
       <c r="C334" t="s">
         <v>1122</v>
       </c>
-      <c r="D334" t="s">
+      <c r="D334" s="1" t="s">
         <v>1437</v>
       </c>
     </row>
-    <row r="335">
+    <row r="335" spans="1:4" ht="210">
       <c r="A335" t="s">
         <v>271</v>
       </c>
@@ -24339,11 +24679,11 @@
       <c r="C335" t="s">
         <v>1123</v>
       </c>
-      <c r="D335" t="s">
+      <c r="D335" s="1" t="s">
         <v>1269</v>
       </c>
     </row>
-    <row r="336">
+    <row r="336" spans="1:4" ht="409">
       <c r="A336" t="s">
         <v>272</v>
       </c>
@@ -24353,11 +24693,11 @@
       <c r="C336" t="s">
         <v>1124</v>
       </c>
-      <c r="D336" t="s">
+      <c r="D336" s="1" t="s">
         <v>1438</v>
       </c>
     </row>
-    <row r="337">
+    <row r="337" spans="1:4" ht="409">
       <c r="A337" t="s">
         <v>35</v>
       </c>
@@ -24367,11 +24707,11 @@
       <c r="C337" t="s">
         <v>1125</v>
       </c>
-      <c r="D337" t="s">
+      <c r="D337" s="1" t="s">
         <v>1439</v>
       </c>
     </row>
-    <row r="338">
+    <row r="338" spans="1:4" ht="140">
       <c r="A338" t="s">
         <v>273</v>
       </c>
@@ -24381,11 +24721,11 @@
       <c r="C338" t="s">
         <v>1126</v>
       </c>
-      <c r="D338" t="s">
+      <c r="D338" s="1" t="s">
         <v>1272</v>
       </c>
     </row>
-    <row r="339">
+    <row r="339" spans="1:4" ht="56">
       <c r="A339" t="s">
         <v>274</v>
       </c>
@@ -24395,11 +24735,11 @@
       <c r="C339" t="s">
         <v>1127</v>
       </c>
-      <c r="D339" t="s">
+      <c r="D339" s="1" t="s">
         <v>1440</v>
       </c>
     </row>
-    <row r="340">
+    <row r="340" spans="1:4" ht="210">
       <c r="A340" t="s">
         <v>89</v>
       </c>
@@ -24409,11 +24749,11 @@
       <c r="C340" t="s">
         <v>1128</v>
       </c>
-      <c r="D340" t="s">
+      <c r="D340" s="1" t="s">
         <v>1269</v>
       </c>
     </row>
-    <row r="341">
+    <row r="341" spans="1:4">
       <c r="A341" t="s">
         <v>275</v>
       </c>
@@ -24423,11 +24763,11 @@
       <c r="C341" t="s">
         <v>1129</v>
       </c>
-      <c r="D341" t="e">
+      <c r="D341" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="342">
+    <row r="342" spans="1:4" ht="56">
       <c r="A342" t="s">
         <v>276</v>
       </c>
@@ -24437,11 +24777,11 @@
       <c r="C342" t="s">
         <v>1130</v>
       </c>
-      <c r="D342" t="s">
+      <c r="D342" s="1" t="s">
         <v>1440</v>
       </c>
     </row>
-    <row r="343">
+    <row r="343" spans="1:4" ht="409">
       <c r="A343" t="s">
         <v>277</v>
       </c>
@@ -24451,11 +24791,11 @@
       <c r="C343" t="s">
         <v>1131</v>
       </c>
-      <c r="D343" t="s">
+      <c r="D343" s="1" t="s">
         <v>1441</v>
       </c>
     </row>
-    <row r="344">
+    <row r="344" spans="1:4">
       <c r="A344" t="s">
         <v>278</v>
       </c>
@@ -24465,11 +24805,11 @@
       <c r="C344" t="s">
         <v>1132</v>
       </c>
-      <c r="D344" t="e">
+      <c r="D344" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="345">
+    <row r="345" spans="1:4" ht="409">
       <c r="A345" t="s">
         <v>279</v>
       </c>
@@ -24479,11 +24819,11 @@
       <c r="C345" t="s">
         <v>1133</v>
       </c>
-      <c r="D345" t="s">
+      <c r="D345" s="1" t="s">
         <v>1442</v>
       </c>
     </row>
-    <row r="346">
+    <row r="346" spans="1:4">
       <c r="A346" t="s">
         <v>107</v>
       </c>
@@ -24493,11 +24833,11 @@
       <c r="C346" t="s">
         <v>1134</v>
       </c>
-      <c r="D346" t="e">
+      <c r="D346" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="347">
+    <row r="347" spans="1:4" ht="409">
       <c r="A347" t="s">
         <v>280</v>
       </c>
@@ -24507,11 +24847,11 @@
       <c r="C347" t="s">
         <v>1135</v>
       </c>
-      <c r="D347" t="s">
+      <c r="D347" s="1" t="s">
         <v>1443</v>
       </c>
     </row>
-    <row r="348">
+    <row r="348" spans="1:4" ht="154">
       <c r="A348" t="s">
         <v>40</v>
       </c>
@@ -24521,11 +24861,11 @@
       <c r="C348" t="s">
         <v>1136</v>
       </c>
-      <c r="D348" t="s">
+      <c r="D348" s="1" t="s">
         <v>1300</v>
       </c>
     </row>
-    <row r="349">
+    <row r="349" spans="1:4" ht="409">
       <c r="A349" t="s">
         <v>66</v>
       </c>
@@ -24535,11 +24875,11 @@
       <c r="C349" t="s">
         <v>1137</v>
       </c>
-      <c r="D349" t="s">
+      <c r="D349" s="1" t="s">
         <v>1444</v>
       </c>
     </row>
-    <row r="350">
+    <row r="350" spans="1:4">
       <c r="A350" t="s">
         <v>281</v>
       </c>
@@ -24549,11 +24889,11 @@
       <c r="C350" t="s">
         <v>1138</v>
       </c>
-      <c r="D350" t="e">
+      <c r="D350" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="351">
+    <row r="351" spans="1:4" ht="409">
       <c r="A351" t="s">
         <v>282</v>
       </c>
@@ -24563,11 +24903,11 @@
       <c r="C351" t="s">
         <v>1139</v>
       </c>
-      <c r="D351" t="s">
+      <c r="D351" s="1" t="s">
         <v>1445</v>
       </c>
     </row>
-    <row r="352">
+    <row r="352" spans="1:4">
       <c r="A352" t="s">
         <v>283</v>
       </c>
@@ -24577,11 +24917,11 @@
       <c r="C352" t="s">
         <v>1140</v>
       </c>
-      <c r="D352" t="e">
+      <c r="D352" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="353">
+    <row r="353" spans="1:4" ht="154">
       <c r="A353" t="s">
         <v>284</v>
       </c>
@@ -24591,11 +24931,11 @@
       <c r="C353" t="s">
         <v>1141</v>
       </c>
-      <c r="D353" t="s">
+      <c r="D353" s="1" t="s">
         <v>1300</v>
       </c>
     </row>
-    <row r="354">
+    <row r="354" spans="1:4" ht="409">
       <c r="A354" t="s">
         <v>79</v>
       </c>
@@ -24605,11 +24945,11 @@
       <c r="C354" t="s">
         <v>1142</v>
       </c>
-      <c r="D354" t="s">
+      <c r="D354" s="1" t="s">
         <v>1446</v>
       </c>
     </row>
-    <row r="355">
+    <row r="355" spans="1:4">
       <c r="A355" t="s">
         <v>79</v>
       </c>
@@ -24619,11 +24959,11 @@
       <c r="C355" t="s">
         <v>1143</v>
       </c>
-      <c r="D355" t="e">
+      <c r="D355" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="356">
+    <row r="356" spans="1:4" ht="70">
       <c r="A356" t="s">
         <v>35</v>
       </c>
@@ -24633,11 +24973,11 @@
       <c r="C356" t="s">
         <v>1144</v>
       </c>
-      <c r="D356" t="s">
+      <c r="D356" s="1" t="s">
         <v>1329</v>
       </c>
     </row>
-    <row r="357">
+    <row r="357" spans="1:4">
       <c r="A357" t="s">
         <v>285</v>
       </c>
@@ -24647,11 +24987,11 @@
       <c r="C357" t="s">
         <v>1145</v>
       </c>
-      <c r="D357" t="e">
+      <c r="D357" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="358">
+    <row r="358" spans="1:4" ht="409">
       <c r="A358" t="s">
         <v>286</v>
       </c>
@@ -24661,11 +25001,11 @@
       <c r="C358" t="s">
         <v>1146</v>
       </c>
-      <c r="D358" t="s">
+      <c r="D358" s="1" t="s">
         <v>1447</v>
       </c>
     </row>
-    <row r="359">
+    <row r="359" spans="1:4" ht="42">
       <c r="A359" t="s">
         <v>287</v>
       </c>
@@ -24675,11 +25015,11 @@
       <c r="C359" t="s">
         <v>1147</v>
       </c>
-      <c r="D359" t="s">
+      <c r="D359" s="1" t="s">
         <v>1384</v>
       </c>
     </row>
-    <row r="360">
+    <row r="360" spans="1:4" ht="210">
       <c r="A360" t="s">
         <v>288</v>
       </c>
@@ -24689,11 +25029,11 @@
       <c r="C360" t="s">
         <v>1148</v>
       </c>
-      <c r="D360" t="s">
+      <c r="D360" s="1" t="s">
         <v>1269</v>
       </c>
     </row>
-    <row r="361">
+    <row r="361" spans="1:4" ht="238">
       <c r="A361" t="s">
         <v>289</v>
       </c>
@@ -24703,11 +25043,11 @@
       <c r="C361" t="s">
         <v>1149</v>
       </c>
-      <c r="D361" t="s">
+      <c r="D361" s="1" t="s">
         <v>1448</v>
       </c>
     </row>
-    <row r="362">
+    <row r="362" spans="1:4" ht="409">
       <c r="A362" t="s">
         <v>111</v>
       </c>
@@ -24717,11 +25057,11 @@
       <c r="C362" t="s">
         <v>1150</v>
       </c>
-      <c r="D362" t="s">
+      <c r="D362" s="1" t="s">
         <v>1449</v>
       </c>
     </row>
-    <row r="363">
+    <row r="363" spans="1:4">
       <c r="A363" t="s">
         <v>74</v>
       </c>
@@ -24731,11 +25071,11 @@
       <c r="C363" t="s">
         <v>1151</v>
       </c>
-      <c r="D363" t="e">
+      <c r="D363" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="364">
+    <row r="364" spans="1:4">
       <c r="A364" t="s">
         <v>290</v>
       </c>
@@ -24745,11 +25085,11 @@
       <c r="C364" t="s">
         <v>1152</v>
       </c>
-      <c r="D364" t="e">
+      <c r="D364" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="365">
+    <row r="365" spans="1:4" ht="409">
       <c r="A365" t="s">
         <v>291</v>
       </c>
@@ -24759,11 +25099,11 @@
       <c r="C365" t="s">
         <v>1153</v>
       </c>
-      <c r="D365" t="s">
+      <c r="D365" s="1" t="s">
         <v>1450</v>
       </c>
     </row>
-    <row r="366">
+    <row r="366" spans="1:4" ht="409">
       <c r="A366" t="s">
         <v>292</v>
       </c>
@@ -24773,11 +25113,11 @@
       <c r="C366" t="s">
         <v>1154</v>
       </c>
-      <c r="D366" t="s">
+      <c r="D366" s="1" t="s">
         <v>1451</v>
       </c>
     </row>
-    <row r="367">
+    <row r="367" spans="1:4">
       <c r="A367" t="s">
         <v>293</v>
       </c>
@@ -24787,11 +25127,11 @@
       <c r="C367" t="s">
         <v>1155</v>
       </c>
-      <c r="D367" t="e">
+      <c r="D367" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="368">
+    <row r="368" spans="1:4">
       <c r="A368" t="s">
         <v>294</v>
       </c>
@@ -24801,11 +25141,11 @@
       <c r="C368" t="s">
         <v>1156</v>
       </c>
-      <c r="D368" t="e">
+      <c r="D368" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="369">
+    <row r="369" spans="1:4" ht="409">
       <c r="A369" t="s">
         <v>295</v>
       </c>
@@ -24815,11 +25155,11 @@
       <c r="C369" t="s">
         <v>1157</v>
       </c>
-      <c r="D369" t="s">
+      <c r="D369" s="1" t="s">
         <v>1296</v>
       </c>
     </row>
-    <row r="370">
+    <row r="370" spans="1:4">
       <c r="A370" t="s">
         <v>296</v>
       </c>
@@ -24829,11 +25169,11 @@
       <c r="C370" t="s">
         <v>1158</v>
       </c>
-      <c r="D370" t="e">
+      <c r="D370" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="371">
+    <row r="371" spans="1:4" ht="409">
       <c r="A371" t="s">
         <v>297</v>
       </c>
@@ -24843,11 +25183,11 @@
       <c r="C371" t="s">
         <v>1159</v>
       </c>
-      <c r="D371" t="s">
+      <c r="D371" s="1" t="s">
         <v>1452</v>
       </c>
     </row>
-    <row r="372">
+    <row r="372" spans="1:4" ht="409">
       <c r="A372" t="s">
         <v>107</v>
       </c>
@@ -24857,11 +25197,11 @@
       <c r="C372" t="s">
         <v>1160</v>
       </c>
-      <c r="D372" t="s">
+      <c r="D372" s="1" t="s">
         <v>1453</v>
       </c>
     </row>
-    <row r="373">
+    <row r="373" spans="1:4">
       <c r="A373" t="s">
         <v>298</v>
       </c>
@@ -24871,11 +25211,11 @@
       <c r="C373" t="s">
         <v>1161</v>
       </c>
-      <c r="D373" t="e">
+      <c r="D373" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="374">
+    <row r="374" spans="1:4" ht="409">
       <c r="A374" t="s">
         <v>299</v>
       </c>
@@ -24885,11 +25225,11 @@
       <c r="C374" t="s">
         <v>1162</v>
       </c>
-      <c r="D374" t="s">
+      <c r="D374" s="1" t="s">
         <v>1301</v>
       </c>
     </row>
-    <row r="375">
+    <row r="375" spans="1:4">
       <c r="A375" t="s">
         <v>300</v>
       </c>
@@ -24899,11 +25239,11 @@
       <c r="C375" t="s">
         <v>1163</v>
       </c>
-      <c r="D375" t="e">
+      <c r="D375" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="376">
+    <row r="376" spans="1:4">
       <c r="A376" t="s">
         <v>205</v>
       </c>
@@ -24913,11 +25253,11 @@
       <c r="C376" t="s">
         <v>1164</v>
       </c>
-      <c r="D376" t="e">
+      <c r="D376" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="377">
+    <row r="377" spans="1:4">
       <c r="A377" t="s">
         <v>301</v>
       </c>
@@ -24927,11 +25267,11 @@
       <c r="C377" t="s">
         <v>1009</v>
       </c>
-      <c r="D377" t="e">
+      <c r="D377" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="378">
+    <row r="378" spans="1:4">
       <c r="A378" t="s">
         <v>302</v>
       </c>
@@ -24941,11 +25281,11 @@
       <c r="C378" t="s">
         <v>1165</v>
       </c>
-      <c r="D378" t="e">
+      <c r="D378" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="379">
+    <row r="379" spans="1:4" ht="210">
       <c r="A379" t="s">
         <v>303</v>
       </c>
@@ -24955,11 +25295,11 @@
       <c r="C379" t="s">
         <v>1166</v>
       </c>
-      <c r="D379" t="s">
+      <c r="D379" s="1" t="s">
         <v>1269</v>
       </c>
     </row>
-    <row r="380">
+    <row r="380" spans="1:4" ht="409">
       <c r="A380" t="s">
         <v>304</v>
       </c>
@@ -24969,11 +25309,11 @@
       <c r="C380" t="s">
         <v>1167</v>
       </c>
-      <c r="D380" t="s">
+      <c r="D380" s="1" t="s">
         <v>1454</v>
       </c>
     </row>
-    <row r="381">
+    <row r="381" spans="1:4" ht="392">
       <c r="A381" t="s">
         <v>305</v>
       </c>
@@ -24983,11 +25323,11 @@
       <c r="C381" t="s">
         <v>1168</v>
       </c>
-      <c r="D381" t="s">
+      <c r="D381" s="1" t="s">
         <v>1455</v>
       </c>
     </row>
-    <row r="382">
+    <row r="382" spans="1:4">
       <c r="A382" t="s">
         <v>306</v>
       </c>
@@ -24997,11 +25337,11 @@
       <c r="C382" t="s">
         <v>1169</v>
       </c>
-      <c r="D382" t="e">
+      <c r="D382" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="383">
+    <row r="383" spans="1:4" ht="409">
       <c r="A383" t="s">
         <v>32</v>
       </c>
@@ -25011,11 +25351,11 @@
       <c r="C383" t="s">
         <v>1170</v>
       </c>
-      <c r="D383" t="s">
+      <c r="D383" s="1" t="s">
         <v>1456</v>
       </c>
     </row>
-    <row r="384">
+    <row r="384" spans="1:4" ht="409">
       <c r="A384" t="s">
         <v>307</v>
       </c>
@@ -25025,11 +25365,11 @@
       <c r="C384" t="s">
         <v>1171</v>
       </c>
-      <c r="D384" t="s">
+      <c r="D384" s="1" t="s">
         <v>1457</v>
       </c>
     </row>
-    <row r="385">
+    <row r="385" spans="1:4" ht="409">
       <c r="A385" t="s">
         <v>308</v>
       </c>
@@ -25039,11 +25379,11 @@
       <c r="C385" t="s">
         <v>1172</v>
       </c>
-      <c r="D385" t="s">
+      <c r="D385" s="1" t="s">
         <v>1458</v>
       </c>
     </row>
-    <row r="386">
+    <row r="386" spans="1:4" ht="56">
       <c r="A386" t="s">
         <v>309</v>
       </c>
@@ -25053,11 +25393,11 @@
       <c r="C386" t="s">
         <v>1173</v>
       </c>
-      <c r="D386" t="s">
+      <c r="D386" s="1" t="s">
         <v>1333</v>
       </c>
     </row>
-    <row r="387">
+    <row r="387" spans="1:4" ht="409">
       <c r="A387" t="s">
         <v>89</v>
       </c>
@@ -25067,11 +25407,11 @@
       <c r="C387" t="s">
         <v>1174</v>
       </c>
-      <c r="D387" t="s">
+      <c r="D387" s="1" t="s">
         <v>1459</v>
       </c>
     </row>
-    <row r="388">
+    <row r="388" spans="1:4" ht="70">
       <c r="A388" t="s">
         <v>35</v>
       </c>
@@ -25081,11 +25421,11 @@
       <c r="C388" t="s">
         <v>1175</v>
       </c>
-      <c r="D388" t="s">
+      <c r="D388" s="1" t="s">
         <v>1329</v>
       </c>
     </row>
-    <row r="389">
+    <row r="389" spans="1:4" ht="392">
       <c r="A389" t="s">
         <v>310</v>
       </c>
@@ -25095,11 +25435,11 @@
       <c r="C389" t="s">
         <v>1176</v>
       </c>
-      <c r="D389" t="s">
+      <c r="D389" s="1" t="s">
         <v>1455</v>
       </c>
     </row>
-    <row r="390">
+    <row r="390" spans="1:4">
       <c r="A390" t="s">
         <v>311</v>
       </c>
@@ -25109,11 +25449,11 @@
       <c r="C390" t="s">
         <v>1177</v>
       </c>
-      <c r="D390" t="e">
+      <c r="D390" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="391">
+    <row r="391" spans="1:4">
       <c r="A391" t="s">
         <v>245</v>
       </c>
@@ -25123,11 +25463,11 @@
       <c r="C391" t="s">
         <v>1178</v>
       </c>
-      <c r="D391" t="e">
+      <c r="D391" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="392">
+    <row r="392" spans="1:4">
       <c r="A392" t="s">
         <v>33</v>
       </c>
@@ -25137,11 +25477,11 @@
       <c r="C392" t="s">
         <v>1179</v>
       </c>
-      <c r="D392" t="e">
+      <c r="D392" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="393">
+    <row r="393" spans="1:4">
       <c r="A393" t="s">
         <v>312</v>
       </c>
@@ -25151,11 +25491,11 @@
       <c r="C393" t="s">
         <v>1180</v>
       </c>
-      <c r="D393" t="e">
+      <c r="D393" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="394">
+    <row r="394" spans="1:4">
       <c r="A394" t="s">
         <v>313</v>
       </c>
@@ -25165,11 +25505,11 @@
       <c r="C394" t="s">
         <v>1181</v>
       </c>
-      <c r="D394" t="e">
+      <c r="D394" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="395">
+    <row r="395" spans="1:4">
       <c r="A395" t="s">
         <v>95</v>
       </c>
@@ -25179,11 +25519,11 @@
       <c r="C395" t="s">
         <v>1182</v>
       </c>
-      <c r="D395" t="e">
+      <c r="D395" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="396">
+    <row r="396" spans="1:4">
       <c r="A396" t="s">
         <v>282</v>
       </c>
@@ -25193,11 +25533,11 @@
       <c r="C396" t="s">
         <v>1183</v>
       </c>
-      <c r="D396" t="e">
+      <c r="D396" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="397">
+    <row r="397" spans="1:4">
       <c r="A397" t="s">
         <v>314</v>
       </c>
@@ -25207,11 +25547,11 @@
       <c r="C397" t="s">
         <v>1184</v>
       </c>
-      <c r="D397" t="e">
+      <c r="D397" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="398">
+    <row r="398" spans="1:4">
       <c r="A398" t="s">
         <v>84</v>
       </c>
@@ -25221,11 +25561,11 @@
       <c r="C398" t="s">
         <v>1185</v>
       </c>
-      <c r="D398" t="e">
+      <c r="D398" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="399">
+    <row r="399" spans="1:4">
       <c r="A399" t="s">
         <v>315</v>
       </c>
@@ -25235,11 +25575,11 @@
       <c r="C399" t="s">
         <v>1186</v>
       </c>
-      <c r="D399" t="e">
+      <c r="D399" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="400">
+    <row r="400" spans="1:4">
       <c r="A400" t="s">
         <v>43</v>
       </c>
@@ -25249,11 +25589,11 @@
       <c r="C400" t="s">
         <v>1187</v>
       </c>
-      <c r="D400" t="e">
+      <c r="D400" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="401">
+    <row r="401" spans="1:4">
       <c r="A401" t="s">
         <v>316</v>
       </c>
@@ -25263,11 +25603,11 @@
       <c r="C401" t="s">
         <v>1188</v>
       </c>
-      <c r="D401" t="e">
+      <c r="D401" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="402">
+    <row r="402" spans="1:4">
       <c r="A402" t="s">
         <v>317</v>
       </c>
@@ -25277,11 +25617,11 @@
       <c r="C402" t="s">
         <v>1189</v>
       </c>
-      <c r="D402" t="e">
+      <c r="D402" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="403">
+    <row r="403" spans="1:4">
       <c r="A403" t="s">
         <v>318</v>
       </c>
@@ -25291,11 +25631,11 @@
       <c r="C403" t="s">
         <v>1190</v>
       </c>
-      <c r="D403" t="e">
+      <c r="D403" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="404">
+    <row r="404" spans="1:4" ht="409">
       <c r="A404" t="s">
         <v>24</v>
       </c>
@@ -25305,11 +25645,11 @@
       <c r="C404" t="s">
         <v>1191</v>
       </c>
-      <c r="D404" t="s">
+      <c r="D404" s="1" t="s">
         <v>1460</v>
       </c>
     </row>
-    <row r="405">
+    <row r="405" spans="1:4">
       <c r="A405" t="s">
         <v>319</v>
       </c>
@@ -25319,11 +25659,11 @@
       <c r="C405" t="s">
         <v>1192</v>
       </c>
-      <c r="D405" t="e">
+      <c r="D405" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="406">
+    <row r="406" spans="1:4">
       <c r="A406" t="s">
         <v>320</v>
       </c>
@@ -25333,11 +25673,11 @@
       <c r="C406" t="s">
         <v>1193</v>
       </c>
-      <c r="D406" t="e">
+      <c r="D406" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="407">
+    <row r="407" spans="1:4" ht="154">
       <c r="A407" t="s">
         <v>321</v>
       </c>
@@ -25347,11 +25687,11 @@
       <c r="C407" t="s">
         <v>1194</v>
       </c>
-      <c r="D407" t="s">
+      <c r="D407" s="1" t="s">
         <v>1300</v>
       </c>
     </row>
-    <row r="408">
+    <row r="408" spans="1:4" ht="154">
       <c r="A408" t="s">
         <v>322</v>
       </c>
@@ -25361,11 +25701,11 @@
       <c r="C408" t="s">
         <v>1195</v>
       </c>
-      <c r="D408" t="s">
+      <c r="D408" s="1" t="s">
         <v>1300</v>
       </c>
     </row>
-    <row r="409">
+    <row r="409" spans="1:4">
       <c r="A409" t="s">
         <v>151</v>
       </c>
@@ -25375,11 +25715,11 @@
       <c r="C409" t="s">
         <v>1196</v>
       </c>
-      <c r="D409" t="e">
+      <c r="D409" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="410">
+    <row r="410" spans="1:4" ht="154">
       <c r="A410" t="s">
         <v>323</v>
       </c>
@@ -25389,11 +25729,11 @@
       <c r="C410" t="s">
         <v>1197</v>
       </c>
-      <c r="D410" t="s">
+      <c r="D410" s="1" t="s">
         <v>1300</v>
       </c>
     </row>
-    <row r="411">
+    <row r="411" spans="1:4" ht="409">
       <c r="A411" t="s">
         <v>324</v>
       </c>
@@ -25403,11 +25743,11 @@
       <c r="C411" t="s">
         <v>1198</v>
       </c>
-      <c r="D411" t="s">
+      <c r="D411" s="1" t="s">
         <v>1461</v>
       </c>
     </row>
-    <row r="412">
+    <row r="412" spans="1:4" ht="409">
       <c r="A412" t="s">
         <v>35</v>
       </c>
@@ -25417,11 +25757,11 @@
       <c r="C412" t="s">
         <v>1199</v>
       </c>
-      <c r="D412" t="s">
+      <c r="D412" s="1" t="s">
         <v>1462</v>
       </c>
     </row>
-    <row r="413">
+    <row r="413" spans="1:4">
       <c r="A413" t="s">
         <v>325</v>
       </c>
@@ -25431,11 +25771,11 @@
       <c r="C413" t="s">
         <v>1200</v>
       </c>
-      <c r="D413" t="e">
+      <c r="D413" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="414">
+    <row r="414" spans="1:4" ht="409">
       <c r="A414" t="s">
         <v>41</v>
       </c>
@@ -25445,11 +25785,11 @@
       <c r="C414" t="s">
         <v>1201</v>
       </c>
-      <c r="D414" t="s">
+      <c r="D414" s="1" t="s">
         <v>1463</v>
       </c>
     </row>
-    <row r="415">
+    <row r="415" spans="1:4" ht="409">
       <c r="A415" t="s">
         <v>35</v>
       </c>
@@ -25459,11 +25799,11 @@
       <c r="C415" t="s">
         <v>1202</v>
       </c>
-      <c r="D415" t="s">
+      <c r="D415" s="1" t="s">
         <v>1464</v>
       </c>
     </row>
-    <row r="416">
+    <row r="416" spans="1:4" ht="224">
       <c r="A416" t="s">
         <v>227</v>
       </c>
@@ -25473,11 +25813,11 @@
       <c r="C416" t="s">
         <v>1203</v>
       </c>
-      <c r="D416" t="s">
+      <c r="D416" s="1" t="s">
         <v>1465</v>
       </c>
     </row>
-    <row r="417">
+    <row r="417" spans="1:4" ht="409">
       <c r="A417" t="s">
         <v>326</v>
       </c>
@@ -25487,11 +25827,11 @@
       <c r="C417" t="s">
         <v>1204</v>
       </c>
-      <c r="D417" t="s">
+      <c r="D417" s="1" t="s">
         <v>1466</v>
       </c>
     </row>
-    <row r="418">
+    <row r="418" spans="1:4" ht="266">
       <c r="A418" t="s">
         <v>327</v>
       </c>
@@ -25501,11 +25841,11 @@
       <c r="C418" t="s">
         <v>1205</v>
       </c>
-      <c r="D418" t="s">
+      <c r="D418" s="1" t="s">
         <v>1467</v>
       </c>
     </row>
-    <row r="419">
+    <row r="419" spans="1:4" ht="409">
       <c r="A419" t="s">
         <v>84</v>
       </c>
@@ -25515,11 +25855,11 @@
       <c r="C419" t="s">
         <v>1206</v>
       </c>
-      <c r="D419" t="s">
+      <c r="D419" s="1" t="s">
         <v>1468</v>
       </c>
     </row>
-    <row r="420">
+    <row r="420" spans="1:4" ht="409">
       <c r="A420" t="s">
         <v>24</v>
       </c>
@@ -25529,11 +25869,11 @@
       <c r="C420" t="s">
         <v>1207</v>
       </c>
-      <c r="D420" t="s">
+      <c r="D420" s="1" t="s">
         <v>1469</v>
       </c>
     </row>
-    <row r="421">
+    <row r="421" spans="1:4" ht="409">
       <c r="A421" t="s">
         <v>328</v>
       </c>
@@ -25543,11 +25883,11 @@
       <c r="C421" t="s">
         <v>1208</v>
       </c>
-      <c r="D421" t="s">
+      <c r="D421" s="1" t="s">
         <v>1470</v>
       </c>
     </row>
-    <row r="422">
+    <row r="422" spans="1:4" ht="409">
       <c r="A422" t="s">
         <v>118</v>
       </c>
@@ -25557,11 +25897,11 @@
       <c r="C422" t="s">
         <v>1209</v>
       </c>
-      <c r="D422" t="s">
+      <c r="D422" s="1" t="s">
         <v>1471</v>
       </c>
     </row>
-    <row r="423">
+    <row r="423" spans="1:4" ht="409">
       <c r="A423" t="s">
         <v>329</v>
       </c>
@@ -25571,11 +25911,11 @@
       <c r="C423" t="s">
         <v>1210</v>
       </c>
-      <c r="D423" t="s">
+      <c r="D423" s="1" t="s">
         <v>1472</v>
       </c>
     </row>
-    <row r="424">
+    <row r="424" spans="1:4" ht="409">
       <c r="A424" t="s">
         <v>330</v>
       </c>
@@ -25585,11 +25925,11 @@
       <c r="C424" t="s">
         <v>1211</v>
       </c>
-      <c r="D424" t="s">
+      <c r="D424" s="1" t="s">
         <v>1473</v>
       </c>
     </row>
-    <row r="425">
+    <row r="425" spans="1:4" ht="409">
       <c r="A425" t="s">
         <v>331</v>
       </c>
@@ -25599,11 +25939,11 @@
       <c r="C425" t="s">
         <v>1212</v>
       </c>
-      <c r="D425" t="s">
+      <c r="D425" s="1" t="s">
         <v>1474</v>
       </c>
     </row>
-    <row r="426">
+    <row r="426" spans="1:4" ht="409">
       <c r="A426" t="s">
         <v>332</v>
       </c>
@@ -25613,11 +25953,11 @@
       <c r="C426" t="s">
         <v>1213</v>
       </c>
-      <c r="D426" t="s">
+      <c r="D426" s="1" t="s">
         <v>1475</v>
       </c>
     </row>
-    <row r="427">
+    <row r="427" spans="1:4" ht="154">
       <c r="A427" t="s">
         <v>306</v>
       </c>
@@ -25627,11 +25967,11 @@
       <c r="C427" t="s">
         <v>1214</v>
       </c>
-      <c r="D427" t="s">
+      <c r="D427" s="1" t="s">
         <v>1300</v>
       </c>
     </row>
-    <row r="428">
+    <row r="428" spans="1:4" ht="409">
       <c r="A428" t="s">
         <v>333</v>
       </c>
@@ -25641,11 +25981,11 @@
       <c r="C428" t="s">
         <v>1215</v>
       </c>
-      <c r="D428" t="s">
+      <c r="D428" s="1" t="s">
         <v>1476</v>
       </c>
     </row>
-    <row r="429">
+    <row r="429" spans="1:4" ht="409">
       <c r="A429" t="s">
         <v>334</v>
       </c>
@@ -25655,11 +25995,11 @@
       <c r="C429" t="s">
         <v>1216</v>
       </c>
-      <c r="D429" t="s">
+      <c r="D429" s="1" t="s">
         <v>1477</v>
       </c>
     </row>
-    <row r="430">
+    <row r="430" spans="1:4" ht="409">
       <c r="A430" t="s">
         <v>151</v>
       </c>
@@ -25669,11 +26009,11 @@
       <c r="C430" t="s">
         <v>1217</v>
       </c>
-      <c r="D430" t="s">
+      <c r="D430" s="1" t="s">
         <v>1478</v>
       </c>
     </row>
-    <row r="431">
+    <row r="431" spans="1:4" ht="210">
       <c r="A431" t="s">
         <v>335</v>
       </c>
@@ -25683,11 +26023,11 @@
       <c r="C431" t="s">
         <v>1218</v>
       </c>
-      <c r="D431" t="s">
+      <c r="D431" s="1" t="s">
         <v>1479</v>
       </c>
     </row>
-    <row r="432">
+    <row r="432" spans="1:4" ht="409">
       <c r="A432" t="s">
         <v>36</v>
       </c>
@@ -25697,11 +26037,11 @@
       <c r="C432" t="s">
         <v>829</v>
       </c>
-      <c r="D432" t="s">
+      <c r="D432" s="1" t="s">
         <v>1480</v>
       </c>
     </row>
-    <row r="433">
+    <row r="433" spans="1:4" ht="224">
       <c r="A433" t="s">
         <v>336</v>
       </c>
@@ -25711,11 +26051,11 @@
       <c r="C433" t="s">
         <v>1219</v>
       </c>
-      <c r="D433" t="s">
+      <c r="D433" s="1" t="s">
         <v>1465</v>
       </c>
     </row>
-    <row r="434">
+    <row r="434" spans="1:4" ht="409">
       <c r="A434" t="s">
         <v>181</v>
       </c>
@@ -25725,11 +26065,11 @@
       <c r="C434" t="s">
         <v>1007</v>
       </c>
-      <c r="D434" t="s">
+      <c r="D434" s="1" t="s">
         <v>1481</v>
       </c>
     </row>
-    <row r="435">
+    <row r="435" spans="1:4" ht="42">
       <c r="A435" t="s">
         <v>45</v>
       </c>
@@ -25739,11 +26079,11 @@
       <c r="C435" t="s">
         <v>1220</v>
       </c>
-      <c r="D435" t="s">
+      <c r="D435" s="1" t="s">
         <v>1281</v>
       </c>
     </row>
-    <row r="436">
+    <row r="436" spans="1:4" ht="409">
       <c r="A436" t="s">
         <v>337</v>
       </c>
@@ -25753,11 +26093,11 @@
       <c r="C436" t="s">
         <v>1221</v>
       </c>
-      <c r="D436" t="s">
+      <c r="D436" s="1" t="s">
         <v>1482</v>
       </c>
     </row>
-    <row r="437">
+    <row r="437" spans="1:4" ht="409">
       <c r="A437" t="s">
         <v>84</v>
       </c>
@@ -25767,11 +26107,11 @@
       <c r="C437" t="s">
         <v>1222</v>
       </c>
-      <c r="D437" t="s">
+      <c r="D437" s="1" t="s">
         <v>1483</v>
       </c>
     </row>
-    <row r="438">
+    <row r="438" spans="1:4">
       <c r="A438" t="s">
         <v>169</v>
       </c>
@@ -25781,11 +26121,11 @@
       <c r="C438" t="s">
         <v>1223</v>
       </c>
-      <c r="D438" t="e">
+      <c r="D438" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="439">
+    <row r="439" spans="1:4" ht="409">
       <c r="A439" t="s">
         <v>338</v>
       </c>
@@ -25795,11 +26135,11 @@
       <c r="C439" t="s">
         <v>1224</v>
       </c>
-      <c r="D439" t="s">
+      <c r="D439" s="1" t="s">
         <v>1484</v>
       </c>
     </row>
-    <row r="440">
+    <row r="440" spans="1:4" ht="409">
       <c r="A440" t="s">
         <v>339</v>
       </c>
@@ -25809,11 +26149,11 @@
       <c r="C440" t="s">
         <v>1225</v>
       </c>
-      <c r="D440" t="s">
+      <c r="D440" s="1" t="s">
         <v>1485</v>
       </c>
     </row>
-    <row r="441">
+    <row r="441" spans="1:4" ht="392">
       <c r="A441" t="s">
         <v>13</v>
       </c>
@@ -25823,11 +26163,11 @@
       <c r="C441" t="s">
         <v>1217</v>
       </c>
-      <c r="D441" t="s">
+      <c r="D441" s="1" t="s">
         <v>1455</v>
       </c>
     </row>
-    <row r="442">
+    <row r="442" spans="1:4" ht="409">
       <c r="A442" t="s">
         <v>340</v>
       </c>
@@ -25837,11 +26177,11 @@
       <c r="C442" t="s">
         <v>1226</v>
       </c>
-      <c r="D442" t="s">
+      <c r="D442" s="1" t="s">
         <v>1486</v>
       </c>
     </row>
-    <row r="443">
+    <row r="443" spans="1:4" ht="409">
       <c r="A443" t="s">
         <v>28</v>
       </c>
@@ -25851,11 +26191,11 @@
       <c r="C443" t="s">
         <v>1227</v>
       </c>
-      <c r="D443" t="s">
+      <c r="D443" s="1" t="s">
         <v>1487</v>
       </c>
     </row>
-    <row r="444">
+    <row r="444" spans="1:4" ht="409">
       <c r="A444" t="s">
         <v>341</v>
       </c>
@@ -25865,11 +26205,11 @@
       <c r="C444" t="s">
         <v>1228</v>
       </c>
-      <c r="D444" t="s">
+      <c r="D444" s="1" t="s">
         <v>1488</v>
       </c>
     </row>
-    <row r="445">
+    <row r="445" spans="1:4" ht="210">
       <c r="A445" t="s">
         <v>342</v>
       </c>
@@ -25879,11 +26219,11 @@
       <c r="C445" t="s">
         <v>1229</v>
       </c>
-      <c r="D445" t="s">
+      <c r="D445" s="1" t="s">
         <v>1269</v>
       </c>
     </row>
-    <row r="446">
+    <row r="446" spans="1:4">
       <c r="A446" t="s">
         <v>79</v>
       </c>
@@ -25893,11 +26233,11 @@
       <c r="C446" t="s">
         <v>1230</v>
       </c>
-      <c r="D446" t="e">
+      <c r="D446" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="447">
+    <row r="447" spans="1:4">
       <c r="A447" t="s">
         <v>33</v>
       </c>
@@ -25907,11 +26247,11 @@
       <c r="C447" t="s">
         <v>1231</v>
       </c>
-      <c r="D447" t="e">
+      <c r="D447" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="448">
+    <row r="448" spans="1:4" ht="409">
       <c r="A448" t="s">
         <v>84</v>
       </c>
@@ -25921,11 +26261,11 @@
       <c r="C448" t="s">
         <v>1232</v>
       </c>
-      <c r="D448" t="s">
+      <c r="D448" s="1" t="s">
         <v>1489</v>
       </c>
     </row>
-    <row r="449">
+    <row r="449" spans="1:4" ht="409">
       <c r="A449" t="s">
         <v>343</v>
       </c>
@@ -25935,11 +26275,11 @@
       <c r="C449" t="s">
         <v>1233</v>
       </c>
-      <c r="D449" t="s">
+      <c r="D449" s="1" t="s">
         <v>1283</v>
       </c>
     </row>
-    <row r="450">
+    <row r="450" spans="1:4" ht="409">
       <c r="A450" t="s">
         <v>344</v>
       </c>
@@ -25949,11 +26289,11 @@
       <c r="C450" t="s">
         <v>1234</v>
       </c>
-      <c r="D450" t="s">
+      <c r="D450" s="1" t="s">
         <v>1490</v>
       </c>
     </row>
-    <row r="451">
+    <row r="451" spans="1:4" ht="409">
       <c r="A451" t="s">
         <v>345</v>
       </c>
@@ -25963,11 +26303,11 @@
       <c r="C451" t="s">
         <v>1235</v>
       </c>
-      <c r="D451" t="s">
+      <c r="D451" s="1" t="s">
         <v>1491</v>
       </c>
     </row>
-    <row r="452">
+    <row r="452" spans="1:4" ht="409">
       <c r="A452" t="s">
         <v>84</v>
       </c>
@@ -25977,11 +26317,11 @@
       <c r="C452" t="s">
         <v>1236</v>
       </c>
-      <c r="D452" t="s">
+      <c r="D452" s="1" t="s">
         <v>1492</v>
       </c>
     </row>
-    <row r="453">
+    <row r="453" spans="1:4" ht="409">
       <c r="A453" t="s">
         <v>346</v>
       </c>
@@ -25991,11 +26331,11 @@
       <c r="C453" t="s">
         <v>1237</v>
       </c>
-      <c r="D453" t="s">
+      <c r="D453" s="1" t="s">
         <v>1493</v>
       </c>
     </row>
-    <row r="454">
+    <row r="454" spans="1:4" ht="409">
       <c r="A454" t="s">
         <v>347</v>
       </c>
@@ -26005,11 +26345,11 @@
       <c r="C454" t="s">
         <v>1238</v>
       </c>
-      <c r="D454" t="s">
+      <c r="D454" s="1" t="s">
         <v>1494</v>
       </c>
     </row>
-    <row r="455">
+    <row r="455" spans="1:4" ht="409">
       <c r="A455" t="s">
         <v>348</v>
       </c>
@@ -26019,11 +26359,11 @@
       <c r="C455" t="s">
         <v>1239</v>
       </c>
-      <c r="D455" t="s">
+      <c r="D455" s="1" t="s">
         <v>1360</v>
       </c>
     </row>
-    <row r="456">
+    <row r="456" spans="1:4" ht="409">
       <c r="A456" t="s">
         <v>349</v>
       </c>
@@ -26033,11 +26373,11 @@
       <c r="C456" t="s">
         <v>1240</v>
       </c>
-      <c r="D456" t="s">
+      <c r="D456" s="1" t="s">
         <v>1495</v>
       </c>
     </row>
-    <row r="457">
+    <row r="457" spans="1:4" ht="409">
       <c r="A457" t="s">
         <v>350</v>
       </c>
@@ -26047,11 +26387,11 @@
       <c r="C457" t="s">
         <v>1241</v>
       </c>
-      <c r="D457" t="s">
+      <c r="D457" s="1" t="s">
         <v>1496</v>
       </c>
     </row>
-    <row r="458">
+    <row r="458" spans="1:4">
       <c r="A458" t="s">
         <v>108</v>
       </c>
@@ -26061,11 +26401,11 @@
       <c r="C458" t="s">
         <v>1242</v>
       </c>
-      <c r="D458" t="e">
+      <c r="D458" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="459">
+    <row r="459" spans="1:4" ht="409">
       <c r="A459" t="s">
         <v>84</v>
       </c>
@@ -26075,11 +26415,11 @@
       <c r="C459" t="s">
         <v>1243</v>
       </c>
-      <c r="D459" t="s">
+      <c r="D459" s="1" t="s">
         <v>1497</v>
       </c>
     </row>
-    <row r="460">
+    <row r="460" spans="1:4" ht="409">
       <c r="A460" t="s">
         <v>70</v>
       </c>
@@ -26089,11 +26429,11 @@
       <c r="C460" t="s">
         <v>1244</v>
       </c>
-      <c r="D460" t="s">
+      <c r="D460" s="1" t="s">
         <v>1498</v>
       </c>
     </row>
-    <row r="461">
+    <row r="461" spans="1:4" ht="409">
       <c r="A461" t="s">
         <v>351</v>
       </c>
@@ -26103,11 +26443,11 @@
       <c r="C461" t="s">
         <v>1245</v>
       </c>
-      <c r="D461" t="s">
+      <c r="D461" s="1" t="s">
         <v>1499</v>
       </c>
     </row>
-    <row r="462">
+    <row r="462" spans="1:4">
       <c r="A462" t="s">
         <v>160</v>
       </c>
@@ -26117,11 +26457,11 @@
       <c r="C462" t="s">
         <v>978</v>
       </c>
-      <c r="D462" t="e">
+      <c r="D462" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="463">
+    <row r="463" spans="1:4" ht="409">
       <c r="A463" t="s">
         <v>352</v>
       </c>
@@ -26131,11 +26471,11 @@
       <c r="C463" t="s">
         <v>1246</v>
       </c>
-      <c r="D463" t="s">
+      <c r="D463" s="1" t="s">
         <v>1500</v>
       </c>
     </row>
-    <row r="464">
+    <row r="464" spans="1:4" ht="70">
       <c r="A464" t="s">
         <v>79</v>
       </c>
@@ -26145,11 +26485,11 @@
       <c r="C464" t="s">
         <v>1247</v>
       </c>
-      <c r="D464" t="s">
+      <c r="D464" s="1" t="s">
         <v>1329</v>
       </c>
     </row>
-    <row r="465">
+    <row r="465" spans="1:4">
       <c r="A465" t="s">
         <v>59</v>
       </c>
@@ -26159,11 +26499,11 @@
       <c r="C465" t="s">
         <v>1248</v>
       </c>
-      <c r="D465" t="e">
+      <c r="D465" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="466">
+    <row r="466" spans="1:4" ht="409">
       <c r="A466" t="s">
         <v>353</v>
       </c>
@@ -26173,11 +26513,11 @@
       <c r="C466" t="s">
         <v>1249</v>
       </c>
-      <c r="D466" t="s">
+      <c r="D466" s="1" t="s">
         <v>1501</v>
       </c>
     </row>
-    <row r="467">
+    <row r="467" spans="1:4" ht="42">
       <c r="A467" t="s">
         <v>354</v>
       </c>
@@ -26187,11 +26527,11 @@
       <c r="C467" t="s">
         <v>1250</v>
       </c>
-      <c r="D467" t="s">
+      <c r="D467" s="1" t="s">
         <v>1384</v>
       </c>
     </row>
-    <row r="468">
+    <row r="468" spans="1:4" ht="210">
       <c r="A468" t="s">
         <v>355</v>
       </c>
@@ -26201,11 +26541,11 @@
       <c r="C468" t="s">
         <v>1251</v>
       </c>
-      <c r="D468" t="s">
+      <c r="D468" s="1" t="s">
         <v>1269</v>
       </c>
     </row>
-    <row r="469">
+    <row r="469" spans="1:4" ht="210">
       <c r="A469" t="s">
         <v>79</v>
       </c>
@@ -26215,11 +26555,11 @@
       <c r="C469" t="s">
         <v>1252</v>
       </c>
-      <c r="D469" t="s">
+      <c r="D469" s="1" t="s">
         <v>1269</v>
       </c>
     </row>
-    <row r="470">
+    <row r="470" spans="1:4" ht="409">
       <c r="A470" t="s">
         <v>356</v>
       </c>
@@ -26229,11 +26569,11 @@
       <c r="C470" t="s">
         <v>1253</v>
       </c>
-      <c r="D470" t="s">
+      <c r="D470" s="1" t="s">
         <v>1502</v>
       </c>
     </row>
-    <row r="471">
+    <row r="471" spans="1:4" ht="112">
       <c r="A471" t="s">
         <v>357</v>
       </c>
@@ -26243,11 +26583,11 @@
       <c r="C471" t="s">
         <v>1254</v>
       </c>
-      <c r="D471" t="s">
+      <c r="D471" s="1" t="s">
         <v>1349</v>
       </c>
     </row>
-    <row r="472">
+    <row r="472" spans="1:4" ht="154">
       <c r="A472" t="s">
         <v>358</v>
       </c>
@@ -26257,11 +26597,11 @@
       <c r="C472" t="s">
         <v>1255</v>
       </c>
-      <c r="D472" t="s">
+      <c r="D472" s="1" t="s">
         <v>1300</v>
       </c>
     </row>
-    <row r="473">
+    <row r="473" spans="1:4" ht="409">
       <c r="A473" t="s">
         <v>359</v>
       </c>
@@ -26271,11 +26611,11 @@
       <c r="C473" t="s">
         <v>1256</v>
       </c>
-      <c r="D473" t="s">
+      <c r="D473" s="1" t="s">
         <v>1503</v>
       </c>
     </row>
-    <row r="474">
+    <row r="474" spans="1:4" ht="409">
       <c r="A474" t="s">
         <v>351</v>
       </c>
@@ -26285,11 +26625,11 @@
       <c r="C474" t="s">
         <v>1257</v>
       </c>
-      <c r="D474" t="s">
+      <c r="D474" s="1" t="s">
         <v>1504</v>
       </c>
     </row>
-    <row r="475">
+    <row r="475" spans="1:4" ht="409">
       <c r="A475" t="s">
         <v>360</v>
       </c>
@@ -26299,11 +26639,11 @@
       <c r="C475" t="s">
         <v>1258</v>
       </c>
-      <c r="D475" t="s">
+      <c r="D475" s="1" t="s">
         <v>1505</v>
       </c>
     </row>
-    <row r="476">
+    <row r="476" spans="1:4" ht="409">
       <c r="A476" t="s">
         <v>361</v>
       </c>
@@ -26313,11 +26653,11 @@
       <c r="C476" t="s">
         <v>1259</v>
       </c>
-      <c r="D476" t="s">
+      <c r="D476" s="1" t="s">
         <v>1296</v>
       </c>
     </row>
-    <row r="477">
+    <row r="477" spans="1:4" ht="409">
       <c r="A477" t="s">
         <v>362</v>
       </c>
@@ -26327,11 +26667,11 @@
       <c r="C477" t="s">
         <v>1260</v>
       </c>
-      <c r="D477" t="s">
+      <c r="D477" s="1" t="s">
         <v>1506</v>
       </c>
     </row>
-    <row r="478">
+    <row r="478" spans="1:4" ht="409">
       <c r="A478" t="s">
         <v>89</v>
       </c>
@@ -26341,11 +26681,11 @@
       <c r="C478" t="s">
         <v>1261</v>
       </c>
-      <c r="D478" t="s">
+      <c r="D478" s="1" t="s">
         <v>1507</v>
       </c>
     </row>
-    <row r="479">
+    <row r="479" spans="1:4">
       <c r="A479" t="s">
         <v>363</v>
       </c>
@@ -26355,11 +26695,11 @@
       <c r="C479" t="s">
         <v>1262</v>
       </c>
-      <c r="D479" t="e">
+      <c r="D479" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="480">
+    <row r="480" spans="1:4" ht="409">
       <c r="A480" t="s">
         <v>191</v>
       </c>
@@ -26369,11 +26709,11 @@
       <c r="C480" t="s">
         <v>1263</v>
       </c>
-      <c r="D480" t="s">
+      <c r="D480" s="1" t="s">
         <v>1485</v>
       </c>
     </row>
-    <row r="481">
+    <row r="481" spans="1:4">
       <c r="A481" t="s">
         <v>364</v>
       </c>
@@ -26383,11 +26723,11 @@
       <c r="C481" t="s">
         <v>1264</v>
       </c>
-      <c r="D481" t="e">
+      <c r="D481" s="1" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="482">
+    <row r="482" spans="1:4" ht="409">
       <c r="A482" t="s">
         <v>277</v>
       </c>
@@ -26397,11 +26737,11 @@
       <c r="C482" t="s">
         <v>1131</v>
       </c>
-      <c r="D482" t="s">
+      <c r="D482" s="1" t="s">
         <v>1508</v>
       </c>
     </row>
-    <row r="483">
+    <row r="483" spans="1:4" ht="409">
       <c r="A483" t="s">
         <v>365</v>
       </c>
@@ -26411,11 +26751,16 @@
       <c r="C483" t="s">
         <v>1265</v>
       </c>
-      <c r="D483" t="s">
+      <c r="D483" s="1" t="s">
         <v>1509</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/CompanyMatches.xlsx
+++ b/CompanyMatches.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27226"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="680" windowWidth="25360" windowHeight="15380"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="15620"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19983,14 +19983,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D483"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="3" max="3" width="38.33203125" customWidth="1"/>
-    <col min="4" max="4" width="62" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.5" customWidth="1"/>
+    <col min="4" max="4" width="57.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -20525,7 +20525,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="409">
+    <row r="39" spans="1:4" ht="336">
       <c r="A39" t="s">
         <v>40</v>
       </c>
@@ -20553,7 +20553,7 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="409">
+    <row r="41" spans="1:4" ht="336">
       <c r="A41" t="s">
         <v>24</v>
       </c>
@@ -20567,7 +20567,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="210">
+    <row r="42" spans="1:4" ht="42">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -20609,7 +20609,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="210">
+    <row r="45" spans="1:4" ht="42">
       <c r="A45" t="s">
         <v>45</v>
       </c>
@@ -20637,7 +20637,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="140">
+    <row r="47" spans="1:4" ht="28">
       <c r="A47" t="s">
         <v>47</v>
       </c>
@@ -20819,7 +20819,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="42">
+    <row r="60" spans="1:4">
       <c r="A60" t="s">
         <v>58</v>
       </c>
@@ -20959,7 +20959,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="409">
+    <row r="70" spans="1:4" ht="392">
       <c r="A70" t="s">
         <v>68</v>
       </c>
@@ -21015,7 +21015,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="409">
+    <row r="74" spans="1:4" ht="224">
       <c r="A74" t="s">
         <v>72</v>
       </c>
@@ -21127,7 +21127,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="409">
+    <row r="82" spans="1:4" ht="252">
       <c r="A82" t="s">
         <v>11</v>
       </c>
@@ -21169,7 +21169,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="409">
+    <row r="85" spans="1:4" ht="266">
       <c r="A85" t="s">
         <v>79</v>
       </c>
@@ -21211,7 +21211,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="154">
+    <row r="88" spans="1:4" ht="28">
       <c r="A88" t="s">
         <v>82</v>
       </c>
@@ -21337,7 +21337,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="350">
+    <row r="97" spans="1:4" ht="84">
       <c r="A97" t="s">
         <v>31</v>
       </c>
@@ -21365,7 +21365,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="409">
+    <row r="99" spans="1:4" ht="322">
       <c r="A99" t="s">
         <v>90</v>
       </c>
@@ -21393,7 +21393,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="409">
+    <row r="101" spans="1:4" ht="112">
       <c r="A101" t="s">
         <v>92</v>
       </c>
@@ -21519,7 +21519,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="154">
+    <row r="110" spans="1:4" ht="28">
       <c r="A110" t="s">
         <v>100</v>
       </c>
@@ -21533,7 +21533,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="409">
+    <row r="111" spans="1:4" ht="322">
       <c r="A111" t="s">
         <v>101</v>
       </c>
@@ -21589,7 +21589,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="409">
+    <row r="115" spans="1:4" ht="182">
       <c r="A115" t="s">
         <v>105</v>
       </c>
@@ -21603,7 +21603,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="210">
+    <row r="116" spans="1:4" ht="42">
       <c r="A116" t="s">
         <v>106</v>
       </c>
@@ -21645,7 +21645,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="409">
+    <row r="119" spans="1:4" ht="252">
       <c r="A119" t="s">
         <v>109</v>
       </c>
@@ -21659,7 +21659,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="409">
+    <row r="120" spans="1:4" ht="392">
       <c r="A120" t="s">
         <v>31</v>
       </c>
@@ -21701,7 +21701,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="350">
+    <row r="123" spans="1:4" ht="70">
       <c r="A123" t="s">
         <v>112</v>
       </c>
@@ -21715,7 +21715,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="409">
+    <row r="124" spans="1:4" ht="392">
       <c r="A124" t="s">
         <v>113</v>
       </c>
@@ -21757,7 +21757,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="210">
+    <row r="127" spans="1:4" ht="42">
       <c r="A127" t="s">
         <v>114</v>
       </c>
@@ -21785,7 +21785,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="224">
+    <row r="129" spans="1:4" ht="56">
       <c r="A129" t="s">
         <v>116</v>
       </c>
@@ -21813,7 +21813,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="56">
+    <row r="131" spans="1:4">
       <c r="A131" t="s">
         <v>118</v>
       </c>
@@ -21827,7 +21827,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="154">
+    <row r="132" spans="1:4" ht="28">
       <c r="A132" t="s">
         <v>119</v>
       </c>
@@ -21841,7 +21841,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="224">
+    <row r="133" spans="1:4" ht="56">
       <c r="A133" t="s">
         <v>120</v>
       </c>
@@ -21869,7 +21869,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="409">
+    <row r="135" spans="1:4" ht="252">
       <c r="A135" t="s">
         <v>79</v>
       </c>
@@ -21897,7 +21897,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="409">
+    <row r="137" spans="1:4" ht="294">
       <c r="A137" t="s">
         <v>122</v>
       </c>
@@ -21925,7 +21925,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="56">
+    <row r="139" spans="1:4">
       <c r="A139" t="s">
         <v>124</v>
       </c>
@@ -21939,7 +21939,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="70">
+    <row r="140" spans="1:4">
       <c r="A140" t="s">
         <v>32</v>
       </c>
@@ -21981,7 +21981,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="409">
+    <row r="143" spans="1:4" ht="336">
       <c r="A143" t="s">
         <v>127</v>
       </c>
@@ -22009,7 +22009,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="409">
+    <row r="145" spans="1:4" ht="322">
       <c r="A145" t="s">
         <v>129</v>
       </c>
@@ -22051,7 +22051,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="56">
+    <row r="148" spans="1:4">
       <c r="A148" t="s">
         <v>132</v>
       </c>
@@ -22065,7 +22065,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="70">
+    <row r="149" spans="1:4">
       <c r="A149" t="s">
         <v>133</v>
       </c>
@@ -22079,7 +22079,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="56">
+    <row r="150" spans="1:4">
       <c r="A150" t="s">
         <v>79</v>
       </c>
@@ -22093,7 +22093,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="168">
+    <row r="151" spans="1:4" ht="42">
       <c r="A151" t="s">
         <v>134</v>
       </c>
@@ -22149,7 +22149,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="168">
+    <row r="155" spans="1:4" ht="42">
       <c r="A155" t="s">
         <v>138</v>
       </c>
@@ -22219,7 +22219,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="84">
+    <row r="160" spans="1:4">
       <c r="A160" t="s">
         <v>142</v>
       </c>
@@ -22317,7 +22317,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="409">
+    <row r="167" spans="1:4" ht="322">
       <c r="A167" t="s">
         <v>148</v>
       </c>
@@ -22373,7 +22373,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="56">
+    <row r="171" spans="1:4">
       <c r="A171" t="s">
         <v>150</v>
       </c>
@@ -22415,7 +22415,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="174" spans="1:4" ht="409">
+    <row r="174" spans="1:4" ht="294">
       <c r="A174" t="s">
         <v>153</v>
       </c>
@@ -22443,7 +22443,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="409">
+    <row r="176" spans="1:4" ht="336">
       <c r="A176" t="s">
         <v>154</v>
       </c>
@@ -22471,7 +22471,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="178" spans="1:4" ht="112">
+    <row r="178" spans="1:4" ht="28">
       <c r="A178" t="s">
         <v>156</v>
       </c>
@@ -22513,7 +22513,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="181" spans="1:4" ht="210">
+    <row r="181" spans="1:4" ht="42">
       <c r="A181" t="s">
         <v>158</v>
       </c>
@@ -22527,7 +22527,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="182" spans="1:4" ht="409">
+    <row r="182" spans="1:4" ht="126">
       <c r="A182" t="s">
         <v>33</v>
       </c>
@@ -22583,7 +22583,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="186" spans="1:4" ht="409">
+    <row r="186" spans="1:4" ht="322">
       <c r="A186" t="s">
         <v>161</v>
       </c>
@@ -22597,7 +22597,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="187" spans="1:4" ht="409">
+    <row r="187" spans="1:4" ht="378">
       <c r="A187" t="s">
         <v>84</v>
       </c>
@@ -22625,7 +22625,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="189" spans="1:4" ht="154">
+    <row r="189" spans="1:4" ht="28">
       <c r="A189" t="s">
         <v>163</v>
       </c>
@@ -22681,7 +22681,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="409">
+    <row r="193" spans="1:4" ht="238">
       <c r="A193" t="s">
         <v>89</v>
       </c>
@@ -22723,7 +22723,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="196" spans="1:4" ht="210">
+    <row r="196" spans="1:4" ht="42">
       <c r="A196" t="s">
         <v>168</v>
       </c>
@@ -22793,7 +22793,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="409">
+    <row r="201" spans="1:4" ht="308">
       <c r="A201" t="s">
         <v>171</v>
       </c>
@@ -22821,7 +22821,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="203" spans="1:4" ht="409">
+    <row r="203" spans="1:4" ht="182">
       <c r="A203" t="s">
         <v>173</v>
       </c>
@@ -22919,7 +22919,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="210" spans="1:4" ht="409">
+    <row r="210" spans="1:4" ht="154">
       <c r="A210" t="s">
         <v>178</v>
       </c>
@@ -23045,7 +23045,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="219" spans="1:4" ht="409">
+    <row r="219" spans="1:4" ht="322">
       <c r="A219" t="s">
         <v>5</v>
       </c>
@@ -23101,7 +23101,7 @@
         <v>1377</v>
       </c>
     </row>
-    <row r="223" spans="1:4" ht="409">
+    <row r="223" spans="1:4" ht="168">
       <c r="A223" t="s">
         <v>189</v>
       </c>
@@ -23143,7 +23143,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="226" spans="1:4" ht="56">
+    <row r="226" spans="1:4">
       <c r="A226" t="s">
         <v>192</v>
       </c>
@@ -23213,7 +23213,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="231" spans="1:4" ht="56">
+    <row r="231" spans="1:4">
       <c r="A231" t="s">
         <v>81</v>
       </c>
@@ -23255,7 +23255,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="234" spans="1:4" ht="154">
+    <row r="234" spans="1:4" ht="28">
       <c r="A234" t="s">
         <v>196</v>
       </c>
@@ -23311,7 +23311,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="238" spans="1:4" ht="42">
+    <row r="238" spans="1:4">
       <c r="A238" t="s">
         <v>59</v>
       </c>
@@ -23339,7 +23339,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="240" spans="1:4" ht="56">
+    <row r="240" spans="1:4">
       <c r="A240" t="s">
         <v>201</v>
       </c>
@@ -23381,7 +23381,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="243" spans="1:4" ht="154">
+    <row r="243" spans="1:4" ht="28">
       <c r="A243" t="s">
         <v>203</v>
       </c>
@@ -23437,7 +23437,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="247" spans="1:4" ht="210">
+    <row r="247" spans="1:4" ht="42">
       <c r="A247" t="s">
         <v>205</v>
       </c>
@@ -23451,7 +23451,7 @@
         <v>1388</v>
       </c>
     </row>
-    <row r="248" spans="1:4" ht="409">
+    <row r="248" spans="1:4" ht="280">
       <c r="A248" t="s">
         <v>206</v>
       </c>
@@ -23479,7 +23479,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="250" spans="1:4" ht="210">
+    <row r="250" spans="1:4" ht="42">
       <c r="A250" t="s">
         <v>208</v>
       </c>
@@ -23703,7 +23703,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="266" spans="1:4" ht="210">
+    <row r="266" spans="1:4" ht="42">
       <c r="A266" t="s">
         <v>42</v>
       </c>
@@ -23801,7 +23801,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="273" spans="1:4" ht="210">
+    <row r="273" spans="1:4" ht="42">
       <c r="A273" t="s">
         <v>225</v>
       </c>
@@ -23815,7 +23815,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="274" spans="1:4" ht="154">
+    <row r="274" spans="1:4" ht="28">
       <c r="A274" t="s">
         <v>226</v>
       </c>
@@ -23829,7 +23829,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="275" spans="1:4" ht="409">
+    <row r="275" spans="1:4" ht="98">
       <c r="A275" t="s">
         <v>5</v>
       </c>
@@ -23857,7 +23857,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="277" spans="1:4" ht="409">
+    <row r="277" spans="1:4" ht="112">
       <c r="A277" t="s">
         <v>228</v>
       </c>
@@ -23899,7 +23899,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="280" spans="1:4" ht="409">
+    <row r="280" spans="1:4" ht="350">
       <c r="A280" t="s">
         <v>230</v>
       </c>
@@ -23969,7 +23969,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="285" spans="1:4" ht="409">
+    <row r="285" spans="1:4" ht="336">
       <c r="A285" t="s">
         <v>65</v>
       </c>
@@ -23997,7 +23997,7 @@
         <v>1407</v>
       </c>
     </row>
-    <row r="287" spans="1:4" ht="409">
+    <row r="287" spans="1:4" ht="140">
       <c r="A287" t="s">
         <v>235</v>
       </c>
@@ -24025,7 +24025,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="289" spans="1:4" ht="70">
+    <row r="289" spans="1:4">
       <c r="A289" t="s">
         <v>237</v>
       </c>
@@ -24081,7 +24081,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="293" spans="1:4" ht="126">
+    <row r="293" spans="1:4" ht="28">
       <c r="A293" t="s">
         <v>241</v>
       </c>
@@ -24109,7 +24109,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="295" spans="1:4" ht="210">
+    <row r="295" spans="1:4" ht="42">
       <c r="A295" t="s">
         <v>243</v>
       </c>
@@ -24137,7 +24137,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="297" spans="1:4" ht="409">
+    <row r="297" spans="1:4" ht="336">
       <c r="A297" t="s">
         <v>245</v>
       </c>
@@ -24165,7 +24165,7 @@
         <v>1414</v>
       </c>
     </row>
-    <row r="299" spans="1:4" ht="266">
+    <row r="299" spans="1:4" ht="70">
       <c r="A299" t="s">
         <v>247</v>
       </c>
@@ -24235,7 +24235,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="304" spans="1:4" ht="409">
+    <row r="304" spans="1:4" ht="322">
       <c r="A304" t="s">
         <v>191</v>
       </c>
@@ -24249,7 +24249,7 @@
         <v>1419</v>
       </c>
     </row>
-    <row r="305" spans="1:4" ht="409">
+    <row r="305" spans="1:4" ht="392">
       <c r="A305" t="s">
         <v>251</v>
       </c>
@@ -24319,7 +24319,7 @@
         <v>1424</v>
       </c>
     </row>
-    <row r="310" spans="1:4" ht="409">
+    <row r="310" spans="1:4" ht="252">
       <c r="A310" t="s">
         <v>207</v>
       </c>
@@ -24347,7 +24347,7 @@
         <v>1426</v>
       </c>
     </row>
-    <row r="312" spans="1:4" ht="112">
+    <row r="312" spans="1:4" ht="28">
       <c r="A312" t="s">
         <v>257</v>
       </c>
@@ -24375,7 +24375,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="314" spans="1:4" ht="56">
+    <row r="314" spans="1:4">
       <c r="A314" t="s">
         <v>258</v>
       </c>
@@ -24403,7 +24403,7 @@
         <v>1428</v>
       </c>
     </row>
-    <row r="316" spans="1:4" ht="210">
+    <row r="316" spans="1:4" ht="42">
       <c r="A316" t="s">
         <v>107</v>
       </c>
@@ -24473,7 +24473,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="321" spans="1:4" ht="409">
+    <row r="321" spans="1:4" ht="350">
       <c r="A321" t="s">
         <v>24</v>
       </c>
@@ -24515,7 +24515,7 @@
         <v>1432</v>
       </c>
     </row>
-    <row r="324" spans="1:4" ht="409">
+    <row r="324" spans="1:4" ht="84">
       <c r="A324" t="s">
         <v>264</v>
       </c>
@@ -24557,7 +24557,7 @@
         <v>1434</v>
       </c>
     </row>
-    <row r="327" spans="1:4" ht="154">
+    <row r="327" spans="1:4" ht="28">
       <c r="A327" t="s">
         <v>59</v>
       </c>
@@ -24669,7 +24669,7 @@
         <v>1437</v>
       </c>
     </row>
-    <row r="335" spans="1:4" ht="210">
+    <row r="335" spans="1:4" ht="42">
       <c r="A335" t="s">
         <v>271</v>
       </c>
@@ -24711,7 +24711,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="338" spans="1:4" ht="140">
+    <row r="338" spans="1:4" ht="28">
       <c r="A338" t="s">
         <v>273</v>
       </c>
@@ -24725,7 +24725,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="339" spans="1:4" ht="56">
+    <row r="339" spans="1:4">
       <c r="A339" t="s">
         <v>274</v>
       </c>
@@ -24739,7 +24739,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="340" spans="1:4" ht="210">
+    <row r="340" spans="1:4" ht="42">
       <c r="A340" t="s">
         <v>89</v>
       </c>
@@ -24767,7 +24767,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="342" spans="1:4" ht="56">
+    <row r="342" spans="1:4">
       <c r="A342" t="s">
         <v>276</v>
       </c>
@@ -24851,7 +24851,7 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="348" spans="1:4" ht="154">
+    <row r="348" spans="1:4" ht="28">
       <c r="A348" t="s">
         <v>40</v>
       </c>
@@ -24921,7 +24921,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="353" spans="1:4" ht="154">
+    <row r="353" spans="1:4" ht="28">
       <c r="A353" t="s">
         <v>284</v>
       </c>
@@ -24963,7 +24963,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="356" spans="1:4" ht="70">
+    <row r="356" spans="1:4">
       <c r="A356" t="s">
         <v>35</v>
       </c>
@@ -24991,7 +24991,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="358" spans="1:4" ht="409">
+    <row r="358" spans="1:4" ht="98">
       <c r="A358" t="s">
         <v>286</v>
       </c>
@@ -25005,7 +25005,7 @@
         <v>1447</v>
       </c>
     </row>
-    <row r="359" spans="1:4" ht="42">
+    <row r="359" spans="1:4">
       <c r="A359" t="s">
         <v>287</v>
       </c>
@@ -25019,7 +25019,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="360" spans="1:4" ht="210">
+    <row r="360" spans="1:4" ht="42">
       <c r="A360" t="s">
         <v>288</v>
       </c>
@@ -25033,7 +25033,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="361" spans="1:4" ht="238">
+    <row r="361" spans="1:4" ht="56">
       <c r="A361" t="s">
         <v>289</v>
       </c>
@@ -25145,7 +25145,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="369" spans="1:4" ht="409">
+    <row r="369" spans="1:4" ht="252">
       <c r="A369" t="s">
         <v>295</v>
       </c>
@@ -25187,7 +25187,7 @@
         <v>1452</v>
       </c>
     </row>
-    <row r="372" spans="1:4" ht="409">
+    <row r="372" spans="1:4" ht="266">
       <c r="A372" t="s">
         <v>107</v>
       </c>
@@ -25285,7 +25285,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="379" spans="1:4" ht="210">
+    <row r="379" spans="1:4" ht="42">
       <c r="A379" t="s">
         <v>303</v>
       </c>
@@ -25313,7 +25313,7 @@
         <v>1454</v>
       </c>
     </row>
-    <row r="381" spans="1:4" ht="392">
+    <row r="381" spans="1:4" ht="70">
       <c r="A381" t="s">
         <v>305</v>
       </c>
@@ -25383,7 +25383,7 @@
         <v>1458</v>
       </c>
     </row>
-    <row r="386" spans="1:4" ht="56">
+    <row r="386" spans="1:4">
       <c r="A386" t="s">
         <v>309</v>
       </c>
@@ -25397,7 +25397,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="387" spans="1:4" ht="409">
+    <row r="387" spans="1:4" ht="210">
       <c r="A387" t="s">
         <v>89</v>
       </c>
@@ -25411,7 +25411,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="388" spans="1:4" ht="70">
+    <row r="388" spans="1:4">
       <c r="A388" t="s">
         <v>35</v>
       </c>
@@ -25425,7 +25425,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="389" spans="1:4" ht="392">
+    <row r="389" spans="1:4" ht="70">
       <c r="A389" t="s">
         <v>310</v>
       </c>
@@ -25677,7 +25677,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="407" spans="1:4" ht="154">
+    <row r="407" spans="1:4" ht="28">
       <c r="A407" t="s">
         <v>321</v>
       </c>
@@ -25691,7 +25691,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="408" spans="1:4" ht="154">
+    <row r="408" spans="1:4" ht="28">
       <c r="A408" t="s">
         <v>322</v>
       </c>
@@ -25719,7 +25719,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="410" spans="1:4" ht="154">
+    <row r="410" spans="1:4" ht="28">
       <c r="A410" t="s">
         <v>323</v>
       </c>
@@ -25803,7 +25803,7 @@
         <v>1464</v>
       </c>
     </row>
-    <row r="416" spans="1:4" ht="224">
+    <row r="416" spans="1:4" ht="56">
       <c r="A416" t="s">
         <v>227</v>
       </c>
@@ -25817,7 +25817,7 @@
         <v>1465</v>
       </c>
     </row>
-    <row r="417" spans="1:4" ht="409">
+    <row r="417" spans="1:4" ht="364">
       <c r="A417" t="s">
         <v>326</v>
       </c>
@@ -25831,7 +25831,7 @@
         <v>1466</v>
       </c>
     </row>
-    <row r="418" spans="1:4" ht="266">
+    <row r="418" spans="1:4" ht="56">
       <c r="A418" t="s">
         <v>327</v>
       </c>
@@ -25845,7 +25845,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="419" spans="1:4" ht="409">
+    <row r="419" spans="1:4" ht="308">
       <c r="A419" t="s">
         <v>84</v>
       </c>
@@ -25873,7 +25873,7 @@
         <v>1469</v>
       </c>
     </row>
-    <row r="421" spans="1:4" ht="409">
+    <row r="421" spans="1:4" ht="322">
       <c r="A421" t="s">
         <v>328</v>
       </c>
@@ -25887,7 +25887,7 @@
         <v>1470</v>
       </c>
     </row>
-    <row r="422" spans="1:4" ht="409">
+    <row r="422" spans="1:4" ht="182">
       <c r="A422" t="s">
         <v>118</v>
       </c>
@@ -25957,7 +25957,7 @@
         <v>1475</v>
       </c>
     </row>
-    <row r="427" spans="1:4" ht="154">
+    <row r="427" spans="1:4" ht="28">
       <c r="A427" t="s">
         <v>306</v>
       </c>
@@ -25985,7 +25985,7 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="429" spans="1:4" ht="409">
+    <row r="429" spans="1:4" ht="406">
       <c r="A429" t="s">
         <v>334</v>
       </c>
@@ -26013,7 +26013,7 @@
         <v>1478</v>
       </c>
     </row>
-    <row r="431" spans="1:4" ht="210">
+    <row r="431" spans="1:4" ht="42">
       <c r="A431" t="s">
         <v>335</v>
       </c>
@@ -26041,7 +26041,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="433" spans="1:4" ht="224">
+    <row r="433" spans="1:4" ht="56">
       <c r="A433" t="s">
         <v>336</v>
       </c>
@@ -26069,7 +26069,7 @@
         <v>1481</v>
       </c>
     </row>
-    <row r="435" spans="1:4" ht="42">
+    <row r="435" spans="1:4">
       <c r="A435" t="s">
         <v>45</v>
       </c>
@@ -26083,7 +26083,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="436" spans="1:4" ht="409">
+    <row r="436" spans="1:4" ht="84">
       <c r="A436" t="s">
         <v>337</v>
       </c>
@@ -26139,7 +26139,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="440" spans="1:4" ht="409">
+    <row r="440" spans="1:4" ht="364">
       <c r="A440" t="s">
         <v>339</v>
       </c>
@@ -26153,7 +26153,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="441" spans="1:4" ht="392">
+    <row r="441" spans="1:4" ht="70">
       <c r="A441" t="s">
         <v>13</v>
       </c>
@@ -26209,7 +26209,7 @@
         <v>1488</v>
       </c>
     </row>
-    <row r="445" spans="1:4" ht="210">
+    <row r="445" spans="1:4" ht="42">
       <c r="A445" t="s">
         <v>342</v>
       </c>
@@ -26251,7 +26251,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="448" spans="1:4" ht="409">
+    <row r="448" spans="1:4" ht="238">
       <c r="A448" t="s">
         <v>84</v>
       </c>
@@ -26279,7 +26279,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="450" spans="1:4" ht="409">
+    <row r="450" spans="1:4" ht="84">
       <c r="A450" t="s">
         <v>344</v>
       </c>
@@ -26293,7 +26293,7 @@
         <v>1490</v>
       </c>
     </row>
-    <row r="451" spans="1:4" ht="409">
+    <row r="451" spans="1:4" ht="308">
       <c r="A451" t="s">
         <v>345</v>
       </c>
@@ -26475,7 +26475,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="464" spans="1:4" ht="70">
+    <row r="464" spans="1:4">
       <c r="A464" t="s">
         <v>79</v>
       </c>
@@ -26503,7 +26503,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="466" spans="1:4" ht="409">
+    <row r="466" spans="1:4" ht="84">
       <c r="A466" t="s">
         <v>353</v>
       </c>
@@ -26517,7 +26517,7 @@
         <v>1501</v>
       </c>
     </row>
-    <row r="467" spans="1:4" ht="42">
+    <row r="467" spans="1:4">
       <c r="A467" t="s">
         <v>354</v>
       </c>
@@ -26531,7 +26531,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="468" spans="1:4" ht="210">
+    <row r="468" spans="1:4" ht="42">
       <c r="A468" t="s">
         <v>355</v>
       </c>
@@ -26545,7 +26545,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="469" spans="1:4" ht="210">
+    <row r="469" spans="1:4" ht="42">
       <c r="A469" t="s">
         <v>79</v>
       </c>
@@ -26573,7 +26573,7 @@
         <v>1502</v>
       </c>
     </row>
-    <row r="471" spans="1:4" ht="112">
+    <row r="471" spans="1:4" ht="28">
       <c r="A471" t="s">
         <v>357</v>
       </c>
@@ -26587,7 +26587,7 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="472" spans="1:4" ht="154">
+    <row r="472" spans="1:4" ht="28">
       <c r="A472" t="s">
         <v>358</v>
       </c>
@@ -26643,7 +26643,7 @@
         <v>1505</v>
       </c>
     </row>
-    <row r="476" spans="1:4" ht="409">
+    <row r="476" spans="1:4" ht="252">
       <c r="A476" t="s">
         <v>361</v>
       </c>
@@ -26699,7 +26699,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="480" spans="1:4" ht="409">
+    <row r="480" spans="1:4" ht="364">
       <c r="A480" t="s">
         <v>191</v>
       </c>

--- a/CompanyMatches.xlsx
+++ b/CompanyMatches.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27322"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="15620"/>
@@ -19983,14 +19983,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D483"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="D47" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="3" max="3" width="31.5" customWidth="1"/>
-    <col min="4" max="4" width="57.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="47.83203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -20525,7 +20524,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="336">
+    <row r="39" spans="1:4" ht="409">
       <c r="A39" t="s">
         <v>40</v>
       </c>
@@ -20553,7 +20552,7 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="336">
+    <row r="41" spans="1:4" ht="409">
       <c r="A41" t="s">
         <v>24</v>
       </c>
@@ -20567,7 +20566,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="42">
+    <row r="42" spans="1:4" ht="210">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -20609,7 +20608,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="42">
+    <row r="45" spans="1:4" ht="210">
       <c r="A45" t="s">
         <v>45</v>
       </c>
@@ -20637,7 +20636,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="28">
+    <row r="47" spans="1:4" ht="140">
       <c r="A47" t="s">
         <v>47</v>
       </c>
@@ -20819,7 +20818,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" ht="42">
       <c r="A60" t="s">
         <v>58</v>
       </c>
@@ -20959,7 +20958,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="392">
+    <row r="70" spans="1:4" ht="409">
       <c r="A70" t="s">
         <v>68</v>
       </c>
@@ -21015,7 +21014,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="224">
+    <row r="74" spans="1:4" ht="409">
       <c r="A74" t="s">
         <v>72</v>
       </c>
@@ -21127,7 +21126,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="252">
+    <row r="82" spans="1:4" ht="409">
       <c r="A82" t="s">
         <v>11</v>
       </c>
@@ -21169,7 +21168,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="266">
+    <row r="85" spans="1:4" ht="409">
       <c r="A85" t="s">
         <v>79</v>
       </c>
@@ -21211,7 +21210,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="28">
+    <row r="88" spans="1:4" ht="154">
       <c r="A88" t="s">
         <v>82</v>
       </c>
@@ -21337,7 +21336,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="84">
+    <row r="97" spans="1:4" ht="350">
       <c r="A97" t="s">
         <v>31</v>
       </c>
@@ -21365,7 +21364,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="322">
+    <row r="99" spans="1:4" ht="409">
       <c r="A99" t="s">
         <v>90</v>
       </c>
@@ -21393,7 +21392,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="112">
+    <row r="101" spans="1:4" ht="409">
       <c r="A101" t="s">
         <v>92</v>
       </c>
@@ -21519,7 +21518,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="28">
+    <row r="110" spans="1:4" ht="154">
       <c r="A110" t="s">
         <v>100</v>
       </c>
@@ -21533,7 +21532,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="322">
+    <row r="111" spans="1:4" ht="409">
       <c r="A111" t="s">
         <v>101</v>
       </c>
@@ -21589,7 +21588,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="182">
+    <row r="115" spans="1:4" ht="409">
       <c r="A115" t="s">
         <v>105</v>
       </c>
@@ -21603,7 +21602,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="42">
+    <row r="116" spans="1:4" ht="210">
       <c r="A116" t="s">
         <v>106</v>
       </c>
@@ -21645,7 +21644,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="252">
+    <row r="119" spans="1:4" ht="409">
       <c r="A119" t="s">
         <v>109</v>
       </c>
@@ -21659,7 +21658,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="392">
+    <row r="120" spans="1:4" ht="409">
       <c r="A120" t="s">
         <v>31</v>
       </c>
@@ -21701,7 +21700,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="70">
+    <row r="123" spans="1:4" ht="350">
       <c r="A123" t="s">
         <v>112</v>
       </c>
@@ -21715,7 +21714,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="392">
+    <row r="124" spans="1:4" ht="409">
       <c r="A124" t="s">
         <v>113</v>
       </c>
@@ -21757,7 +21756,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="42">
+    <row r="127" spans="1:4" ht="210">
       <c r="A127" t="s">
         <v>114</v>
       </c>
@@ -21785,7 +21784,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="56">
+    <row r="129" spans="1:4" ht="224">
       <c r="A129" t="s">
         <v>116</v>
       </c>
@@ -21813,7 +21812,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="131" spans="1:4">
+    <row r="131" spans="1:4" ht="56">
       <c r="A131" t="s">
         <v>118</v>
       </c>
@@ -21827,7 +21826,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="28">
+    <row r="132" spans="1:4" ht="154">
       <c r="A132" t="s">
         <v>119</v>
       </c>
@@ -21841,7 +21840,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="56">
+    <row r="133" spans="1:4" ht="224">
       <c r="A133" t="s">
         <v>120</v>
       </c>
@@ -21869,7 +21868,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="252">
+    <row r="135" spans="1:4" ht="409">
       <c r="A135" t="s">
         <v>79</v>
       </c>
@@ -21897,7 +21896,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="294">
+    <row r="137" spans="1:4" ht="409">
       <c r="A137" t="s">
         <v>122</v>
       </c>
@@ -21925,7 +21924,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="139" spans="1:4">
+    <row r="139" spans="1:4" ht="56">
       <c r="A139" t="s">
         <v>124</v>
       </c>
@@ -21939,7 +21938,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="140" spans="1:4">
+    <row r="140" spans="1:4" ht="70">
       <c r="A140" t="s">
         <v>32</v>
       </c>
@@ -21981,7 +21980,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="336">
+    <row r="143" spans="1:4" ht="409">
       <c r="A143" t="s">
         <v>127</v>
       </c>
@@ -22009,7 +22008,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="322">
+    <row r="145" spans="1:4" ht="409">
       <c r="A145" t="s">
         <v>129</v>
       </c>
@@ -22051,7 +22050,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="148" spans="1:4">
+    <row r="148" spans="1:4" ht="56">
       <c r="A148" t="s">
         <v>132</v>
       </c>
@@ -22065,7 +22064,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="149" spans="1:4">
+    <row r="149" spans="1:4" ht="70">
       <c r="A149" t="s">
         <v>133</v>
       </c>
@@ -22079,7 +22078,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="150" spans="1:4">
+    <row r="150" spans="1:4" ht="56">
       <c r="A150" t="s">
         <v>79</v>
       </c>
@@ -22093,7 +22092,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="42">
+    <row r="151" spans="1:4" ht="168">
       <c r="A151" t="s">
         <v>134</v>
       </c>
@@ -22149,7 +22148,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="42">
+    <row r="155" spans="1:4" ht="168">
       <c r="A155" t="s">
         <v>138</v>
       </c>
@@ -22219,7 +22218,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="160" spans="1:4">
+    <row r="160" spans="1:4" ht="84">
       <c r="A160" t="s">
         <v>142</v>
       </c>
@@ -22317,7 +22316,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="322">
+    <row r="167" spans="1:4" ht="409">
       <c r="A167" t="s">
         <v>148</v>
       </c>
@@ -22373,7 +22372,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="171" spans="1:4">
+    <row r="171" spans="1:4" ht="56">
       <c r="A171" t="s">
         <v>150</v>
       </c>
@@ -22415,7 +22414,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="174" spans="1:4" ht="294">
+    <row r="174" spans="1:4" ht="409">
       <c r="A174" t="s">
         <v>153</v>
       </c>
@@ -22443,7 +22442,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="336">
+    <row r="176" spans="1:4" ht="409">
       <c r="A176" t="s">
         <v>154</v>
       </c>
@@ -22471,7 +22470,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="178" spans="1:4" ht="28">
+    <row r="178" spans="1:4" ht="112">
       <c r="A178" t="s">
         <v>156</v>
       </c>
@@ -22513,7 +22512,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="181" spans="1:4" ht="42">
+    <row r="181" spans="1:4" ht="210">
       <c r="A181" t="s">
         <v>158</v>
       </c>
@@ -22527,7 +22526,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="182" spans="1:4" ht="126">
+    <row r="182" spans="1:4" ht="409">
       <c r="A182" t="s">
         <v>33</v>
       </c>
@@ -22583,7 +22582,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="186" spans="1:4" ht="322">
+    <row r="186" spans="1:4" ht="409">
       <c r="A186" t="s">
         <v>161</v>
       </c>
@@ -22597,7 +22596,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="187" spans="1:4" ht="378">
+    <row r="187" spans="1:4" ht="409">
       <c r="A187" t="s">
         <v>84</v>
       </c>
@@ -22625,7 +22624,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="189" spans="1:4" ht="28">
+    <row r="189" spans="1:4" ht="154">
       <c r="A189" t="s">
         <v>163</v>
       </c>
@@ -22681,7 +22680,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="238">
+    <row r="193" spans="1:4" ht="409">
       <c r="A193" t="s">
         <v>89</v>
       </c>
@@ -22723,7 +22722,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="196" spans="1:4" ht="42">
+    <row r="196" spans="1:4" ht="210">
       <c r="A196" t="s">
         <v>168</v>
       </c>
@@ -22793,7 +22792,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="308">
+    <row r="201" spans="1:4" ht="409">
       <c r="A201" t="s">
         <v>171</v>
       </c>
@@ -22821,7 +22820,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="203" spans="1:4" ht="182">
+    <row r="203" spans="1:4" ht="409">
       <c r="A203" t="s">
         <v>173</v>
       </c>
@@ -22919,7 +22918,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="210" spans="1:4" ht="154">
+    <row r="210" spans="1:4" ht="409">
       <c r="A210" t="s">
         <v>178</v>
       </c>
@@ -23045,7 +23044,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="219" spans="1:4" ht="322">
+    <row r="219" spans="1:4" ht="409">
       <c r="A219" t="s">
         <v>5</v>
       </c>
@@ -23101,7 +23100,7 @@
         <v>1377</v>
       </c>
     </row>
-    <row r="223" spans="1:4" ht="168">
+    <row r="223" spans="1:4" ht="409">
       <c r="A223" t="s">
         <v>189</v>
       </c>
@@ -23143,7 +23142,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="226" spans="1:4">
+    <row r="226" spans="1:4" ht="56">
       <c r="A226" t="s">
         <v>192</v>
       </c>
@@ -23213,7 +23212,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="231" spans="1:4">
+    <row r="231" spans="1:4" ht="56">
       <c r="A231" t="s">
         <v>81</v>
       </c>
@@ -23255,7 +23254,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="234" spans="1:4" ht="28">
+    <row r="234" spans="1:4" ht="154">
       <c r="A234" t="s">
         <v>196</v>
       </c>
@@ -23311,7 +23310,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="238" spans="1:4">
+    <row r="238" spans="1:4" ht="42">
       <c r="A238" t="s">
         <v>59</v>
       </c>
@@ -23339,7 +23338,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="240" spans="1:4">
+    <row r="240" spans="1:4" ht="56">
       <c r="A240" t="s">
         <v>201</v>
       </c>
@@ -23381,7 +23380,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="243" spans="1:4" ht="28">
+    <row r="243" spans="1:4" ht="154">
       <c r="A243" t="s">
         <v>203</v>
       </c>
@@ -23437,7 +23436,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="247" spans="1:4" ht="42">
+    <row r="247" spans="1:4" ht="210">
       <c r="A247" t="s">
         <v>205</v>
       </c>
@@ -23451,7 +23450,7 @@
         <v>1388</v>
       </c>
     </row>
-    <row r="248" spans="1:4" ht="280">
+    <row r="248" spans="1:4" ht="409">
       <c r="A248" t="s">
         <v>206</v>
       </c>
@@ -23479,7 +23478,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="250" spans="1:4" ht="42">
+    <row r="250" spans="1:4" ht="210">
       <c r="A250" t="s">
         <v>208</v>
       </c>
@@ -23703,7 +23702,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="266" spans="1:4" ht="42">
+    <row r="266" spans="1:4" ht="210">
       <c r="A266" t="s">
         <v>42</v>
       </c>
@@ -23801,7 +23800,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="273" spans="1:4" ht="42">
+    <row r="273" spans="1:4" ht="210">
       <c r="A273" t="s">
         <v>225</v>
       </c>
@@ -23815,7 +23814,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="274" spans="1:4" ht="28">
+    <row r="274" spans="1:4" ht="154">
       <c r="A274" t="s">
         <v>226</v>
       </c>
@@ -23829,7 +23828,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="275" spans="1:4" ht="98">
+    <row r="275" spans="1:4" ht="409">
       <c r="A275" t="s">
         <v>5</v>
       </c>
@@ -23857,7 +23856,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="277" spans="1:4" ht="112">
+    <row r="277" spans="1:4" ht="409">
       <c r="A277" t="s">
         <v>228</v>
       </c>
@@ -23899,7 +23898,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="280" spans="1:4" ht="350">
+    <row r="280" spans="1:4" ht="409">
       <c r="A280" t="s">
         <v>230</v>
       </c>
@@ -23969,7 +23968,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="285" spans="1:4" ht="336">
+    <row r="285" spans="1:4" ht="409">
       <c r="A285" t="s">
         <v>65</v>
       </c>
@@ -23997,7 +23996,7 @@
         <v>1407</v>
       </c>
     </row>
-    <row r="287" spans="1:4" ht="140">
+    <row r="287" spans="1:4" ht="409">
       <c r="A287" t="s">
         <v>235</v>
       </c>
@@ -24025,7 +24024,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="289" spans="1:4">
+    <row r="289" spans="1:4" ht="70">
       <c r="A289" t="s">
         <v>237</v>
       </c>
@@ -24081,7 +24080,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="293" spans="1:4" ht="28">
+    <row r="293" spans="1:4" ht="126">
       <c r="A293" t="s">
         <v>241</v>
       </c>
@@ -24109,7 +24108,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="295" spans="1:4" ht="42">
+    <row r="295" spans="1:4" ht="210">
       <c r="A295" t="s">
         <v>243</v>
       </c>
@@ -24137,7 +24136,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="297" spans="1:4" ht="336">
+    <row r="297" spans="1:4" ht="409">
       <c r="A297" t="s">
         <v>245</v>
       </c>
@@ -24165,7 +24164,7 @@
         <v>1414</v>
       </c>
     </row>
-    <row r="299" spans="1:4" ht="70">
+    <row r="299" spans="1:4" ht="266">
       <c r="A299" t="s">
         <v>247</v>
       </c>
@@ -24235,7 +24234,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="304" spans="1:4" ht="322">
+    <row r="304" spans="1:4" ht="409">
       <c r="A304" t="s">
         <v>191</v>
       </c>
@@ -24249,7 +24248,7 @@
         <v>1419</v>
       </c>
     </row>
-    <row r="305" spans="1:4" ht="392">
+    <row r="305" spans="1:4" ht="409">
       <c r="A305" t="s">
         <v>251</v>
       </c>
@@ -24319,7 +24318,7 @@
         <v>1424</v>
       </c>
     </row>
-    <row r="310" spans="1:4" ht="252">
+    <row r="310" spans="1:4" ht="409">
       <c r="A310" t="s">
         <v>207</v>
       </c>
@@ -24347,7 +24346,7 @@
         <v>1426</v>
       </c>
     </row>
-    <row r="312" spans="1:4" ht="28">
+    <row r="312" spans="1:4" ht="112">
       <c r="A312" t="s">
         <v>257</v>
       </c>
@@ -24375,7 +24374,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="314" spans="1:4">
+    <row r="314" spans="1:4" ht="56">
       <c r="A314" t="s">
         <v>258</v>
       </c>
@@ -24403,7 +24402,7 @@
         <v>1428</v>
       </c>
     </row>
-    <row r="316" spans="1:4" ht="42">
+    <row r="316" spans="1:4" ht="210">
       <c r="A316" t="s">
         <v>107</v>
       </c>
@@ -24473,7 +24472,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="321" spans="1:4" ht="350">
+    <row r="321" spans="1:4" ht="409">
       <c r="A321" t="s">
         <v>24</v>
       </c>
@@ -24515,7 +24514,7 @@
         <v>1432</v>
       </c>
     </row>
-    <row r="324" spans="1:4" ht="84">
+    <row r="324" spans="1:4" ht="409">
       <c r="A324" t="s">
         <v>264</v>
       </c>
@@ -24557,7 +24556,7 @@
         <v>1434</v>
       </c>
     </row>
-    <row r="327" spans="1:4" ht="28">
+    <row r="327" spans="1:4" ht="154">
       <c r="A327" t="s">
         <v>59</v>
       </c>
@@ -24669,7 +24668,7 @@
         <v>1437</v>
       </c>
     </row>
-    <row r="335" spans="1:4" ht="42">
+    <row r="335" spans="1:4" ht="210">
       <c r="A335" t="s">
         <v>271</v>
       </c>
@@ -24711,7 +24710,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="338" spans="1:4" ht="28">
+    <row r="338" spans="1:4" ht="140">
       <c r="A338" t="s">
         <v>273</v>
       </c>
@@ -24725,7 +24724,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="339" spans="1:4">
+    <row r="339" spans="1:4" ht="56">
       <c r="A339" t="s">
         <v>274</v>
       </c>
@@ -24739,7 +24738,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="340" spans="1:4" ht="42">
+    <row r="340" spans="1:4" ht="210">
       <c r="A340" t="s">
         <v>89</v>
       </c>
@@ -24767,7 +24766,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="342" spans="1:4">
+    <row r="342" spans="1:4" ht="56">
       <c r="A342" t="s">
         <v>276</v>
       </c>
@@ -24851,7 +24850,7 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="348" spans="1:4" ht="28">
+    <row r="348" spans="1:4" ht="154">
       <c r="A348" t="s">
         <v>40</v>
       </c>
@@ -24921,7 +24920,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="353" spans="1:4" ht="28">
+    <row r="353" spans="1:4" ht="154">
       <c r="A353" t="s">
         <v>284</v>
       </c>
@@ -24963,7 +24962,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="356" spans="1:4">
+    <row r="356" spans="1:4" ht="70">
       <c r="A356" t="s">
         <v>35</v>
       </c>
@@ -24991,7 +24990,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="358" spans="1:4" ht="98">
+    <row r="358" spans="1:4" ht="409">
       <c r="A358" t="s">
         <v>286</v>
       </c>
@@ -25005,7 +25004,7 @@
         <v>1447</v>
       </c>
     </row>
-    <row r="359" spans="1:4">
+    <row r="359" spans="1:4" ht="42">
       <c r="A359" t="s">
         <v>287</v>
       </c>
@@ -25019,7 +25018,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="360" spans="1:4" ht="42">
+    <row r="360" spans="1:4" ht="210">
       <c r="A360" t="s">
         <v>288</v>
       </c>
@@ -25033,7 +25032,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="361" spans="1:4" ht="56">
+    <row r="361" spans="1:4" ht="238">
       <c r="A361" t="s">
         <v>289</v>
       </c>
@@ -25145,7 +25144,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="369" spans="1:4" ht="252">
+    <row r="369" spans="1:4" ht="409">
       <c r="A369" t="s">
         <v>295</v>
       </c>
@@ -25187,7 +25186,7 @@
         <v>1452</v>
       </c>
     </row>
-    <row r="372" spans="1:4" ht="266">
+    <row r="372" spans="1:4" ht="409">
       <c r="A372" t="s">
         <v>107</v>
       </c>
@@ -25285,7 +25284,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="379" spans="1:4" ht="42">
+    <row r="379" spans="1:4" ht="210">
       <c r="A379" t="s">
         <v>303</v>
       </c>
@@ -25313,7 +25312,7 @@
         <v>1454</v>
       </c>
     </row>
-    <row r="381" spans="1:4" ht="70">
+    <row r="381" spans="1:4" ht="392">
       <c r="A381" t="s">
         <v>305</v>
       </c>
@@ -25383,7 +25382,7 @@
         <v>1458</v>
       </c>
     </row>
-    <row r="386" spans="1:4">
+    <row r="386" spans="1:4" ht="56">
       <c r="A386" t="s">
         <v>309</v>
       </c>
@@ -25397,7 +25396,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="387" spans="1:4" ht="210">
+    <row r="387" spans="1:4" ht="409">
       <c r="A387" t="s">
         <v>89</v>
       </c>
@@ -25411,7 +25410,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="388" spans="1:4">
+    <row r="388" spans="1:4" ht="70">
       <c r="A388" t="s">
         <v>35</v>
       </c>
@@ -25425,7 +25424,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="389" spans="1:4" ht="70">
+    <row r="389" spans="1:4" ht="392">
       <c r="A389" t="s">
         <v>310</v>
       </c>
@@ -25677,7 +25676,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="407" spans="1:4" ht="28">
+    <row r="407" spans="1:4" ht="154">
       <c r="A407" t="s">
         <v>321</v>
       </c>
@@ -25691,7 +25690,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="408" spans="1:4" ht="28">
+    <row r="408" spans="1:4" ht="154">
       <c r="A408" t="s">
         <v>322</v>
       </c>
@@ -25719,7 +25718,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="410" spans="1:4" ht="28">
+    <row r="410" spans="1:4" ht="154">
       <c r="A410" t="s">
         <v>323</v>
       </c>
@@ -25803,7 +25802,7 @@
         <v>1464</v>
       </c>
     </row>
-    <row r="416" spans="1:4" ht="56">
+    <row r="416" spans="1:4" ht="224">
       <c r="A416" t="s">
         <v>227</v>
       </c>
@@ -25817,7 +25816,7 @@
         <v>1465</v>
       </c>
     </row>
-    <row r="417" spans="1:4" ht="364">
+    <row r="417" spans="1:4" ht="409">
       <c r="A417" t="s">
         <v>326</v>
       </c>
@@ -25831,7 +25830,7 @@
         <v>1466</v>
       </c>
     </row>
-    <row r="418" spans="1:4" ht="56">
+    <row r="418" spans="1:4" ht="266">
       <c r="A418" t="s">
         <v>327</v>
       </c>
@@ -25845,7 +25844,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="419" spans="1:4" ht="308">
+    <row r="419" spans="1:4" ht="409">
       <c r="A419" t="s">
         <v>84</v>
       </c>
@@ -25873,7 +25872,7 @@
         <v>1469</v>
       </c>
     </row>
-    <row r="421" spans="1:4" ht="322">
+    <row r="421" spans="1:4" ht="409">
       <c r="A421" t="s">
         <v>328</v>
       </c>
@@ -25887,7 +25886,7 @@
         <v>1470</v>
       </c>
     </row>
-    <row r="422" spans="1:4" ht="182">
+    <row r="422" spans="1:4" ht="409">
       <c r="A422" t="s">
         <v>118</v>
       </c>
@@ -25957,7 +25956,7 @@
         <v>1475</v>
       </c>
     </row>
-    <row r="427" spans="1:4" ht="28">
+    <row r="427" spans="1:4" ht="154">
       <c r="A427" t="s">
         <v>306</v>
       </c>
@@ -25985,7 +25984,7 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="429" spans="1:4" ht="406">
+    <row r="429" spans="1:4" ht="409">
       <c r="A429" t="s">
         <v>334</v>
       </c>
@@ -26013,7 +26012,7 @@
         <v>1478</v>
       </c>
     </row>
-    <row r="431" spans="1:4" ht="42">
+    <row r="431" spans="1:4" ht="210">
       <c r="A431" t="s">
         <v>335</v>
       </c>
@@ -26041,7 +26040,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="433" spans="1:4" ht="56">
+    <row r="433" spans="1:4" ht="224">
       <c r="A433" t="s">
         <v>336</v>
       </c>
@@ -26069,7 +26068,7 @@
         <v>1481</v>
       </c>
     </row>
-    <row r="435" spans="1:4">
+    <row r="435" spans="1:4" ht="42">
       <c r="A435" t="s">
         <v>45</v>
       </c>
@@ -26083,7 +26082,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="436" spans="1:4" ht="84">
+    <row r="436" spans="1:4" ht="409">
       <c r="A436" t="s">
         <v>337</v>
       </c>
@@ -26139,7 +26138,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="440" spans="1:4" ht="364">
+    <row r="440" spans="1:4" ht="409">
       <c r="A440" t="s">
         <v>339</v>
       </c>
@@ -26153,7 +26152,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="441" spans="1:4" ht="70">
+    <row r="441" spans="1:4" ht="392">
       <c r="A441" t="s">
         <v>13</v>
       </c>
@@ -26209,7 +26208,7 @@
         <v>1488</v>
       </c>
     </row>
-    <row r="445" spans="1:4" ht="42">
+    <row r="445" spans="1:4" ht="210">
       <c r="A445" t="s">
         <v>342</v>
       </c>
@@ -26251,7 +26250,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="448" spans="1:4" ht="238">
+    <row r="448" spans="1:4" ht="409">
       <c r="A448" t="s">
         <v>84</v>
       </c>
@@ -26279,7 +26278,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="450" spans="1:4" ht="84">
+    <row r="450" spans="1:4" ht="409">
       <c r="A450" t="s">
         <v>344</v>
       </c>
@@ -26293,7 +26292,7 @@
         <v>1490</v>
       </c>
     </row>
-    <row r="451" spans="1:4" ht="308">
+    <row r="451" spans="1:4" ht="409">
       <c r="A451" t="s">
         <v>345</v>
       </c>
@@ -26475,7 +26474,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="464" spans="1:4">
+    <row r="464" spans="1:4" ht="70">
       <c r="A464" t="s">
         <v>79</v>
       </c>
@@ -26503,7 +26502,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="466" spans="1:4" ht="84">
+    <row r="466" spans="1:4" ht="409">
       <c r="A466" t="s">
         <v>353</v>
       </c>
@@ -26517,7 +26516,7 @@
         <v>1501</v>
       </c>
     </row>
-    <row r="467" spans="1:4">
+    <row r="467" spans="1:4" ht="42">
       <c r="A467" t="s">
         <v>354</v>
       </c>
@@ -26531,7 +26530,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="468" spans="1:4" ht="42">
+    <row r="468" spans="1:4" ht="210">
       <c r="A468" t="s">
         <v>355</v>
       </c>
@@ -26545,7 +26544,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="469" spans="1:4" ht="42">
+    <row r="469" spans="1:4" ht="210">
       <c r="A469" t="s">
         <v>79</v>
       </c>
@@ -26573,7 +26572,7 @@
         <v>1502</v>
       </c>
     </row>
-    <row r="471" spans="1:4" ht="28">
+    <row r="471" spans="1:4" ht="112">
       <c r="A471" t="s">
         <v>357</v>
       </c>
@@ -26587,7 +26586,7 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="472" spans="1:4" ht="28">
+    <row r="472" spans="1:4" ht="154">
       <c r="A472" t="s">
         <v>358</v>
       </c>
@@ -26643,7 +26642,7 @@
         <v>1505</v>
       </c>
     </row>
-    <row r="476" spans="1:4" ht="252">
+    <row r="476" spans="1:4" ht="409">
       <c r="A476" t="s">
         <v>361</v>
       </c>
@@ -26699,7 +26698,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="480" spans="1:4" ht="364">
+    <row r="480" spans="1:4" ht="409">
       <c r="A480" t="s">
         <v>191</v>
       </c>
